--- a/ennusteet_excel/Ennusteet_koko_maa.xlsx
+++ b/ennusteet_excel/Ennusteet_koko_maa.xlsx
@@ -553,621 +553,639 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>995495.8</v>
+        <v>1004037</v>
       </c>
       <c r="D3" t="n">
-        <v>1005277.7</v>
+        <v>1004037</v>
       </c>
       <c r="E3" t="n">
-        <v>997648.25</v>
+        <v>1004037</v>
       </c>
       <c r="F3" t="n">
-        <v>1002704</v>
+        <v>1004037</v>
       </c>
       <c r="G3" t="n">
-        <v>1000065.5</v>
+        <v>1004037</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>976336.8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>996499.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>980621.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>991731</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>985826</v>
-      </c>
-      <c r="H4"/>
+        <v>1004037</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>955051.2</v>
+        <v>984148.9</v>
       </c>
       <c r="D5" t="n">
-        <v>987536.4</v>
+        <v>996026.1</v>
       </c>
       <c r="E5" t="n">
-        <v>961518.25</v>
+        <v>986904.75</v>
       </c>
       <c r="F5" t="n">
-        <v>979698</v>
+        <v>993118.5</v>
       </c>
       <c r="G5" t="n">
-        <v>970426</v>
+        <v>989979.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>932220.3</v>
+        <v>962628.2</v>
       </c>
       <c r="D6" t="n">
-        <v>979188.9</v>
+        <v>987506.2</v>
       </c>
       <c r="E6" t="n">
-        <v>942633.25</v>
+        <v>968394.75</v>
       </c>
       <c r="F6" t="n">
-        <v>967586.5</v>
+        <v>981503.25</v>
       </c>
       <c r="G6" t="n">
-        <v>954772</v>
+        <v>974760.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>910272.6</v>
+        <v>940092.4</v>
       </c>
       <c r="D7" t="n">
-        <v>971231</v>
+        <v>978766.9</v>
       </c>
       <c r="E7" t="n">
-        <v>924919</v>
+        <v>949051</v>
       </c>
       <c r="F7" t="n">
-        <v>956801.5</v>
+        <v>969109.5</v>
       </c>
       <c r="G7" t="n">
-        <v>940464.5</v>
+        <v>958760.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>888096.2</v>
+        <v>917645.1</v>
       </c>
       <c r="D8" t="n">
-        <v>963760.4</v>
+        <v>971570.1</v>
       </c>
       <c r="E8" t="n">
-        <v>907205</v>
+        <v>930755.5</v>
       </c>
       <c r="F8" t="n">
-        <v>946283.5</v>
+        <v>958222.5</v>
       </c>
       <c r="G8" t="n">
-        <v>926304</v>
+        <v>944316.5</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>866064.1</v>
+        <v>895072.6</v>
       </c>
       <c r="D9" t="n">
-        <v>959454.2</v>
+        <v>964383.1</v>
       </c>
       <c r="E9" t="n">
-        <v>891707.25</v>
+        <v>911869.25</v>
       </c>
       <c r="F9" t="n">
-        <v>938600.75</v>
+        <v>947142.25</v>
       </c>
       <c r="G9" t="n">
-        <v>914760</v>
+        <v>929740.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>847361.3</v>
+        <v>874471.3</v>
       </c>
       <c r="D10" t="n">
-        <v>958208.2</v>
+        <v>960129.3</v>
       </c>
       <c r="E10" t="n">
-        <v>876086.5</v>
+        <v>894682.75</v>
       </c>
       <c r="F10" t="n">
-        <v>932285.5</v>
+        <v>938816.75</v>
       </c>
       <c r="G10" t="n">
-        <v>903476</v>
+        <v>916884.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>829835.2</v>
+        <v>854689.1</v>
       </c>
       <c r="D11" t="n">
-        <v>958749.8</v>
+        <v>956197</v>
       </c>
       <c r="E11" t="n">
-        <v>862785</v>
+        <v>878753.5</v>
       </c>
       <c r="F11" t="n">
-        <v>928608.5</v>
+        <v>931470.75</v>
       </c>
       <c r="G11" t="n">
-        <v>895619</v>
+        <v>905661</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>815787.1</v>
+        <v>837586.7</v>
       </c>
       <c r="D12" t="n">
-        <v>964080</v>
+        <v>955407.5</v>
       </c>
       <c r="E12" t="n">
-        <v>851614.75</v>
+        <v>866393.5</v>
       </c>
       <c r="F12" t="n">
-        <v>928002</v>
+        <v>927298.5</v>
       </c>
       <c r="G12" t="n">
-        <v>890795.5</v>
+        <v>897085.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>803905.9</v>
+        <v>824465.9</v>
       </c>
       <c r="D13" t="n">
-        <v>970949.1</v>
+        <v>958386.9</v>
       </c>
       <c r="E13" t="n">
-        <v>845391.5</v>
+        <v>854471.25</v>
       </c>
       <c r="F13" t="n">
-        <v>931286.25</v>
+        <v>926157</v>
       </c>
       <c r="G13" t="n">
-        <v>888342</v>
+        <v>891794</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>795429.8</v>
+        <v>812055.9</v>
       </c>
       <c r="D14" t="n">
-        <v>981029.4</v>
+        <v>966243.3</v>
       </c>
       <c r="E14" t="n">
-        <v>842671.5</v>
+        <v>844977.5</v>
       </c>
       <c r="F14" t="n">
-        <v>938720.75</v>
+        <v>927860.25</v>
       </c>
       <c r="G14" t="n">
-        <v>889462</v>
+        <v>889892.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>790496.9</v>
+        <v>803343.2</v>
       </c>
       <c r="D15" t="n">
-        <v>995270.8</v>
+        <v>977347.3</v>
       </c>
       <c r="E15" t="n">
-        <v>842191.5</v>
+        <v>840990.5</v>
       </c>
       <c r="F15" t="n">
-        <v>949096.5</v>
+        <v>933741.25</v>
       </c>
       <c r="G15" t="n">
-        <v>893823.5</v>
+        <v>891206</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>782122.5</v>
+        <v>796937.3</v>
       </c>
       <c r="D16" t="n">
-        <v>1011465</v>
+        <v>992158.1</v>
       </c>
       <c r="E16" t="n">
-        <v>841001</v>
+        <v>838937.25</v>
       </c>
       <c r="F16" t="n">
-        <v>958566.5</v>
+        <v>942952.25</v>
       </c>
       <c r="G16" t="n">
-        <v>900334</v>
+        <v>895857</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>775748.6</v>
+        <v>790901.9</v>
       </c>
       <c r="D17" t="n">
-        <v>1024146.1</v>
+        <v>1007948.6</v>
       </c>
       <c r="E17" t="n">
-        <v>838908.75</v>
+        <v>837046.75</v>
       </c>
       <c r="F17" t="n">
-        <v>966905.5</v>
+        <v>950971</v>
       </c>
       <c r="G17" t="n">
-        <v>901423.5</v>
+        <v>899014</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>772873.1</v>
+        <v>782665.6</v>
       </c>
       <c r="D18" t="n">
-        <v>1046966.4</v>
+        <v>1020899.7</v>
       </c>
       <c r="E18" t="n">
-        <v>841370</v>
+        <v>831787.25</v>
       </c>
       <c r="F18" t="n">
-        <v>980578</v>
+        <v>958912.75</v>
       </c>
       <c r="G18" t="n">
-        <v>906141.5</v>
+        <v>900988.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>766040.6</v>
+        <v>779291.2</v>
       </c>
       <c r="D19" t="n">
-        <v>1068686.4</v>
+        <v>1037378.1</v>
       </c>
       <c r="E19" t="n">
-        <v>843385.5</v>
+        <v>833057.5</v>
       </c>
       <c r="F19" t="n">
-        <v>995848.75</v>
+        <v>973445.25</v>
       </c>
       <c r="G19" t="n">
-        <v>915955.5</v>
+        <v>905966.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>763747.6</v>
+        <v>775876.4</v>
       </c>
       <c r="D20" t="n">
-        <v>1090142.1</v>
+        <v>1056961.1</v>
       </c>
       <c r="E20" t="n">
-        <v>846014.5</v>
+        <v>836533.5</v>
       </c>
       <c r="F20" t="n">
-        <v>1010797.75</v>
+        <v>989247.75</v>
       </c>
       <c r="G20" t="n">
-        <v>923895</v>
+        <v>913196.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>763170.6</v>
+        <v>773265.3</v>
       </c>
       <c r="D21" t="n">
-        <v>1104542.4</v>
+        <v>1081910.3</v>
       </c>
       <c r="E21" t="n">
-        <v>851058.5</v>
+        <v>837853.5</v>
       </c>
       <c r="F21" t="n">
-        <v>1023890</v>
+        <v>1001705.25</v>
       </c>
       <c r="G21" t="n">
-        <v>931950</v>
+        <v>922276</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>759383.3</v>
+        <v>768304</v>
       </c>
       <c r="D22" t="n">
-        <v>1124990.5</v>
+        <v>1103730.6</v>
       </c>
       <c r="E22" t="n">
-        <v>856920</v>
+        <v>841694.75</v>
       </c>
       <c r="F22" t="n">
-        <v>1034173.5</v>
+        <v>1016476</v>
       </c>
       <c r="G22" t="n">
-        <v>940179.5</v>
+        <v>930173.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>754063.3</v>
+        <v>763660.6</v>
       </c>
       <c r="D23" t="n">
-        <v>1139894.2</v>
+        <v>1119837.4</v>
       </c>
       <c r="E23" t="n">
-        <v>855335.5</v>
+        <v>846346.75</v>
       </c>
       <c r="F23" t="n">
-        <v>1045009.75</v>
+        <v>1028083.25</v>
       </c>
       <c r="G23" t="n">
-        <v>947986.5</v>
+        <v>934441</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>752000.6</v>
+        <v>760394.6</v>
       </c>
       <c r="D24" t="n">
-        <v>1150644</v>
+        <v>1136479</v>
       </c>
       <c r="E24" t="n">
-        <v>853703.75</v>
+        <v>846952</v>
       </c>
       <c r="F24" t="n">
-        <v>1052878.25</v>
+        <v>1036628.75</v>
       </c>
       <c r="G24" t="n">
-        <v>953728</v>
+        <v>939282.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>749920.1</v>
+        <v>755944.3</v>
       </c>
       <c r="D25" t="n">
-        <v>1164887</v>
+        <v>1151272.6</v>
       </c>
       <c r="E25" t="n">
-        <v>855251</v>
+        <v>848976</v>
       </c>
       <c r="F25" t="n">
-        <v>1060877.5</v>
+        <v>1045555</v>
       </c>
       <c r="G25" t="n">
-        <v>957333.5</v>
+        <v>944177</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>745417.3</v>
+        <v>750201.1</v>
       </c>
       <c r="D26" t="n">
-        <v>1180379.4</v>
+        <v>1163517.5</v>
       </c>
       <c r="E26" t="n">
-        <v>852531.75</v>
+        <v>850749.75</v>
       </c>
       <c r="F26" t="n">
-        <v>1070541.75</v>
+        <v>1052128.75</v>
       </c>
       <c r="G26" t="n">
-        <v>961430.5</v>
+        <v>950018</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>741829.8</v>
+        <v>744996.1</v>
       </c>
       <c r="D27" t="n">
-        <v>1195644.5</v>
+        <v>1176515.2</v>
       </c>
       <c r="E27" t="n">
-        <v>851961.25</v>
+        <v>848537.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1076036.25</v>
+        <v>1057821.75</v>
       </c>
       <c r="G27" t="n">
-        <v>963776</v>
+        <v>953369.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>735945.9</v>
+        <v>739776</v>
       </c>
       <c r="D28" t="n">
-        <v>1200239.3</v>
+        <v>1193718.2</v>
       </c>
       <c r="E28" t="n">
-        <v>851376.25</v>
+        <v>848366</v>
       </c>
       <c r="F28" t="n">
-        <v>1081186.5</v>
+        <v>1064767.25</v>
       </c>
       <c r="G28" t="n">
-        <v>967364</v>
+        <v>954296.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>737607.1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1208250.1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>846140.75</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1073856.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>954458.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,621 +1240,639 @@
         <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>1.16158067206499</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="D3" t="n">
-        <v>1.44266251740752</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="E3" t="n">
-        <v>1.22315352303706</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="F3" t="n">
-        <v>1.36877574592261</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="G3" t="n">
-        <v>1.29306694722196</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.15061805603691</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.47093475507373</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.22156448069946</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.3886936710932</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>1.30039190961972</v>
-      </c>
-      <c r="H4"/>
+        <v>1.2780796334476</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>1.12927778772515</v>
+        <v>1.15061805603691</v>
       </c>
       <c r="D5" t="n">
-        <v>1.48965411636352</v>
+        <v>1.47093475507373</v>
       </c>
       <c r="E5" t="n">
-        <v>1.21414429876089</v>
+        <v>1.22156448069946</v>
       </c>
       <c r="F5" t="n">
-        <v>1.40843480297687</v>
+        <v>1.3886936710932</v>
       </c>
       <c r="G5" t="n">
-        <v>1.30867174588539</v>
+        <v>1.30039190961972</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>1.12100158240035</v>
+        <v>1.12927778772515</v>
       </c>
       <c r="D6" t="n">
-        <v>1.51282915087396</v>
+        <v>1.48965411636352</v>
       </c>
       <c r="E6" t="n">
-        <v>1.20382590404728</v>
+        <v>1.21414429876089</v>
       </c>
       <c r="F6" t="n">
-        <v>1.42299107832175</v>
+        <v>1.40843480297687</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32108022751372</v>
+        <v>1.30867174588539</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>1.11666182387558</v>
+        <v>1.12100158240035</v>
       </c>
       <c r="D7" t="n">
-        <v>1.53087767011943</v>
+        <v>1.51282915087396</v>
       </c>
       <c r="E7" t="n">
-        <v>1.21417813226209</v>
+        <v>1.20382590404728</v>
       </c>
       <c r="F7" t="n">
-        <v>1.42973154462228</v>
+        <v>1.42299107832175</v>
       </c>
       <c r="G7" t="n">
-        <v>1.32305283265772</v>
+        <v>1.32108022751372</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>1.11130299208843</v>
+        <v>1.11666182387558</v>
       </c>
       <c r="D8" t="n">
-        <v>1.54129695153765</v>
+        <v>1.53087767011943</v>
       </c>
       <c r="E8" t="n">
-        <v>1.21349624921232</v>
+        <v>1.21417813226209</v>
       </c>
       <c r="F8" t="n">
-        <v>1.44107404234682</v>
+        <v>1.42973154462228</v>
       </c>
       <c r="G8" t="n">
-        <v>1.33637401233704</v>
+        <v>1.32305283265772</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="C9" t="n">
-        <v>1.10344457905032</v>
+        <v>1.11130299208843</v>
       </c>
       <c r="D9" t="n">
-        <v>1.56198231827718</v>
+        <v>1.54129695153765</v>
       </c>
       <c r="E9" t="n">
-        <v>1.21188119702286</v>
+        <v>1.21349624921232</v>
       </c>
       <c r="F9" t="n">
-        <v>1.45660316492537</v>
+        <v>1.44107404234682</v>
       </c>
       <c r="G9" t="n">
-        <v>1.33582991809635</v>
+        <v>1.33637401233704</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="n">
-        <v>1.10598500546352</v>
+        <v>1.10344457905032</v>
       </c>
       <c r="D10" t="n">
-        <v>1.57581331115355</v>
+        <v>1.56198231827718</v>
       </c>
       <c r="E10" t="n">
-        <v>1.21884373160442</v>
+        <v>1.21188119702286</v>
       </c>
       <c r="F10" t="n">
-        <v>1.4694717553957</v>
+        <v>1.45660316492537</v>
       </c>
       <c r="G10" t="n">
-        <v>1.34368867167156</v>
+        <v>1.33582991809635</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>1.09646228050542</v>
+        <v>1.10598500546352</v>
       </c>
       <c r="D11" t="n">
-        <v>1.58241644167648</v>
+        <v>1.57581331115355</v>
       </c>
       <c r="E11" t="n">
-        <v>1.21888022290412</v>
+        <v>1.21884373160442</v>
       </c>
       <c r="F11" t="n">
-        <v>1.48204700427204</v>
+        <v>1.4694717553957</v>
       </c>
       <c r="G11" t="n">
-        <v>1.34803103531925</v>
+        <v>1.34368867167156</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>1.08528203880155</v>
+        <v>1.09646228050542</v>
       </c>
       <c r="D12" t="n">
-        <v>1.60242916438207</v>
+        <v>1.58241644167648</v>
       </c>
       <c r="E12" t="n">
-        <v>1.21658675787477</v>
+        <v>1.21888022290412</v>
       </c>
       <c r="F12" t="n">
-        <v>1.4882352856823</v>
+        <v>1.48204700427204</v>
       </c>
       <c r="G12" t="n">
-        <v>1.35598812753968</v>
+        <v>1.34803103531925</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>1.07877487439865</v>
+        <v>1.08528203880155</v>
       </c>
       <c r="D13" t="n">
-        <v>1.61714292493226</v>
+        <v>1.60242916438207</v>
       </c>
       <c r="E13" t="n">
-        <v>1.21576592310236</v>
+        <v>1.21658675787477</v>
       </c>
       <c r="F13" t="n">
-        <v>1.49183388933846</v>
+        <v>1.4882352856823</v>
       </c>
       <c r="G13" t="n">
-        <v>1.37171272680842</v>
+        <v>1.35598812753968</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0873248738124</v>
+        <v>1.07877487439865</v>
       </c>
       <c r="D14" t="n">
-        <v>1.63212213073084</v>
+        <v>1.61714292493226</v>
       </c>
       <c r="E14" t="n">
-        <v>1.22290400607251</v>
+        <v>1.21576592310236</v>
       </c>
       <c r="F14" t="n">
-        <v>1.509277253468</v>
+        <v>1.49183388933846</v>
       </c>
       <c r="G14" t="n">
-        <v>1.37509849231608</v>
+        <v>1.37171272680842</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="n">
-        <v>1.09146861917517</v>
+        <v>1.0873248738124</v>
       </c>
       <c r="D15" t="n">
-        <v>1.64158955209321</v>
+        <v>1.63212213073084</v>
       </c>
       <c r="E15" t="n">
-        <v>1.22517059710176</v>
+        <v>1.22290400607251</v>
       </c>
       <c r="F15" t="n">
-        <v>1.51705441790654</v>
+        <v>1.509277253468</v>
       </c>
       <c r="G15" t="n">
-        <v>1.38549494577113</v>
+        <v>1.37509849231608</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>1.08794836047519</v>
+        <v>1.09146861917517</v>
       </c>
       <c r="D16" t="n">
-        <v>1.64929444243715</v>
+        <v>1.64158955209321</v>
       </c>
       <c r="E16" t="n">
-        <v>1.23500757159733</v>
+        <v>1.22517059710176</v>
       </c>
       <c r="F16" t="n">
-        <v>1.51935853517645</v>
+        <v>1.51705441790654</v>
       </c>
       <c r="G16" t="n">
-        <v>1.38648564374382</v>
+        <v>1.38549494577113</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>1.07585210226621</v>
+        <v>1.08794836047519</v>
       </c>
       <c r="D17" t="n">
-        <v>1.64809734565513</v>
+        <v>1.64929444243715</v>
       </c>
       <c r="E17" t="n">
-        <v>1.23135831599826</v>
+        <v>1.23500757159733</v>
       </c>
       <c r="F17" t="n">
-        <v>1.52945412903461</v>
+        <v>1.51935853517645</v>
       </c>
       <c r="G17" t="n">
-        <v>1.38807690796734</v>
+        <v>1.38648564374382</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>1.06705667312135</v>
+        <v>1.07585210226621</v>
       </c>
       <c r="D18" t="n">
-        <v>1.66443230644291</v>
+        <v>1.64809734565513</v>
       </c>
       <c r="E18" t="n">
-        <v>1.23418955308699</v>
+        <v>1.23135831599826</v>
       </c>
       <c r="F18" t="n">
-        <v>1.53497417961588</v>
+        <v>1.52945412903461</v>
       </c>
       <c r="G18" t="n">
-        <v>1.38845652773934</v>
+        <v>1.38807690796734</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
       <c r="C19" t="n">
-        <v>1.05873281063613</v>
+        <v>1.06705667312135</v>
       </c>
       <c r="D19" t="n">
-        <v>1.68115878611563</v>
+        <v>1.66443230644291</v>
       </c>
       <c r="E19" t="n">
-        <v>1.23191427823521</v>
+        <v>1.23418955308699</v>
       </c>
       <c r="F19" t="n">
-        <v>1.53906012997073</v>
+        <v>1.53497417961588</v>
       </c>
       <c r="G19" t="n">
-        <v>1.38905070105348</v>
+        <v>1.38845652773934</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>1.07277079940008</v>
+        <v>1.05873281063613</v>
       </c>
       <c r="D20" t="n">
-        <v>1.69757635607091</v>
+        <v>1.68115878611563</v>
       </c>
       <c r="E20" t="n">
-        <v>1.23754196641202</v>
+        <v>1.23191427823521</v>
       </c>
       <c r="F20" t="n">
-        <v>1.54772204587026</v>
+        <v>1.53906012997073</v>
       </c>
       <c r="G20" t="n">
-        <v>1.40032458449159</v>
+        <v>1.38905070105348</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>1.07535212617163</v>
+        <v>1.07277079940008</v>
       </c>
       <c r="D21" t="n">
-        <v>1.71296499707748</v>
+        <v>1.69757635607091</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2344204164291</v>
+        <v>1.23754196641202</v>
       </c>
       <c r="F21" t="n">
-        <v>1.55618756085112</v>
+        <v>1.54772204587026</v>
       </c>
       <c r="G21" t="n">
-        <v>1.39945851846958</v>
+        <v>1.40032458449159</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
       </c>
       <c r="C22" t="n">
-        <v>1.06411828107446</v>
+        <v>1.07535212617163</v>
       </c>
       <c r="D22" t="n">
-        <v>1.72038904190727</v>
+        <v>1.71296499707748</v>
       </c>
       <c r="E22" t="n">
-        <v>1.23459483375155</v>
+        <v>1.2344204164291</v>
       </c>
       <c r="F22" t="n">
-        <v>1.56181085237151</v>
+        <v>1.55618756085112</v>
       </c>
       <c r="G22" t="n">
-        <v>1.41054327797016</v>
+        <v>1.39945851846958</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>1.05769189110853</v>
+        <v>1.06411828107446</v>
       </c>
       <c r="D23" t="n">
-        <v>1.73149215896779</v>
+        <v>1.72038904190727</v>
       </c>
       <c r="E23" t="n">
-        <v>1.23531342553563</v>
+        <v>1.23459483375155</v>
       </c>
       <c r="F23" t="n">
-        <v>1.56166149822386</v>
+        <v>1.56181085237151</v>
       </c>
       <c r="G23" t="n">
-        <v>1.40843082698582</v>
+        <v>1.41054327797016</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="n">
-        <v>1.06674158357543</v>
+        <v>1.05769189110853</v>
       </c>
       <c r="D24" t="n">
-        <v>1.73332161013256</v>
+        <v>1.73149215896779</v>
       </c>
       <c r="E24" t="n">
-        <v>1.22952980193493</v>
+        <v>1.23531342553563</v>
       </c>
       <c r="F24" t="n">
-        <v>1.57172243656036</v>
+        <v>1.56166149822386</v>
       </c>
       <c r="G24" t="n">
-        <v>1.41127679309632</v>
+        <v>1.40843082698582</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>1.04534524929615</v>
+        <v>1.06674158357543</v>
       </c>
       <c r="D25" t="n">
-        <v>1.73481469414601</v>
+        <v>1.73332161013256</v>
       </c>
       <c r="E25" t="n">
-        <v>1.24254609833418</v>
+        <v>1.22952980193493</v>
       </c>
       <c r="F25" t="n">
-        <v>1.57894754609896</v>
+        <v>1.57172243656036</v>
       </c>
       <c r="G25" t="n">
-        <v>1.41276728546054</v>
+        <v>1.41127679309632</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>1.05145238932517</v>
+        <v>1.04534524929615</v>
       </c>
       <c r="D26" t="n">
-        <v>1.74293850539961</v>
+        <v>1.73481469414601</v>
       </c>
       <c r="E26" t="n">
-        <v>1.24369190096971</v>
+        <v>1.24254609833418</v>
       </c>
       <c r="F26" t="n">
-        <v>1.57957425373549</v>
+        <v>1.57894754609896</v>
       </c>
       <c r="G26" t="n">
-        <v>1.42193661462329</v>
+        <v>1.41276728546054</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="n">
-        <v>1.05899206869517</v>
+        <v>1.05145238932517</v>
       </c>
       <c r="D27" t="n">
-        <v>1.74886133645298</v>
+        <v>1.74293850539961</v>
       </c>
       <c r="E27" t="n">
-        <v>1.24774071121993</v>
+        <v>1.24369190096971</v>
       </c>
       <c r="F27" t="n">
-        <v>1.59050566606348</v>
+        <v>1.57957425373549</v>
       </c>
       <c r="G27" t="n">
-        <v>1.42290232989069</v>
+        <v>1.42193661462329</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="n">
+        <v>1.05899206869517</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.74886133645298</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.24774071121993</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.59050566606348</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.42290232989069</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="n">
         <v>1.05818232103186</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>1.73454789579819</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E29" t="n">
         <v>1.24432542646672</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
         <v>1.59538716797686</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>1.42595283068202</v>
       </c>
-      <c r="H28"/>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1891,621 +1927,639 @@
         <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>0.176098041089991</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.17752729863621</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="E3" t="n">
-        <v>0.176422978526774</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.177173879445909</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="G3" t="n">
-        <v>0.176768871004852</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.172254899117453</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.175239315453286</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.172866234335952</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.17444039165477</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.173629615651005</v>
-      </c>
-      <c r="H4"/>
+        <v>0.177488907352083</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>0.168091873787412</v>
+        <v>0.173574380758016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.172763989065816</v>
+        <v>0.17523979561898</v>
       </c>
       <c r="E5" t="n">
-        <v>0.169138066003729</v>
+        <v>0.173921039127212</v>
       </c>
       <c r="F5" t="n">
-        <v>0.171654085075521</v>
+        <v>0.174812934970531</v>
       </c>
       <c r="G5" t="n">
-        <v>0.170375334005149</v>
+        <v>0.174374864555478</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>0.163922908079416</v>
+        <v>0.16941145673491</v>
       </c>
       <c r="D6" t="n">
-        <v>0.170421540558651</v>
+        <v>0.172823675854176</v>
       </c>
       <c r="E6" t="n">
-        <v>0.165358898820925</v>
+        <v>0.170175352626906</v>
       </c>
       <c r="F6" t="n">
-        <v>0.168909016562239</v>
+        <v>0.172063428634873</v>
       </c>
       <c r="G6" t="n">
-        <v>0.167065270246092</v>
+        <v>0.171105625477518</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159870820348759</v>
+        <v>0.165185263592401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.168262735328387</v>
+        <v>0.170439409522074</v>
       </c>
       <c r="E7" t="n">
-        <v>0.161822426531428</v>
+        <v>0.166354226042489</v>
       </c>
       <c r="F7" t="n">
-        <v>0.166377258070067</v>
+        <v>0.169299650543804</v>
       </c>
       <c r="G7" t="n">
-        <v>0.16399306026044</v>
+        <v>0.167745510422169</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>0.155931972189059</v>
+        <v>0.161065072652232</v>
       </c>
       <c r="D8" t="n">
-        <v>0.166287424799914</v>
+        <v>0.168281385012739</v>
       </c>
       <c r="E8" t="n">
-        <v>0.158285057665214</v>
+        <v>0.162655664597955</v>
       </c>
       <c r="F8" t="n">
-        <v>0.163997475254848</v>
+        <v>0.166678875403403</v>
       </c>
       <c r="G8" t="n">
-        <v>0.161048115923621</v>
+        <v>0.164645398279402</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>0.152209854586094</v>
+        <v>0.156938449846512</v>
       </c>
       <c r="D9" t="n">
-        <v>0.164702096428593</v>
+        <v>0.16622921833132</v>
       </c>
       <c r="E9" t="n">
-        <v>0.155025991950006</v>
+        <v>0.159065883117554</v>
       </c>
       <c r="F9" t="n">
-        <v>0.161980883257177</v>
+        <v>0.164211879270326</v>
       </c>
       <c r="G9" t="n">
-        <v>0.158432078135504</v>
+        <v>0.161628323941934</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>0.148671949645216</v>
+        <v>0.153276783385807</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16338911562895</v>
+        <v>0.164561463025485</v>
       </c>
       <c r="E10" t="n">
-        <v>0.152108008838949</v>
+        <v>0.155689827025836</v>
       </c>
       <c r="F10" t="n">
-        <v>0.160298519958585</v>
+        <v>0.162117750704276</v>
       </c>
       <c r="G10" t="n">
-        <v>0.156038239839747</v>
+        <v>0.158828332035883</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>0.145609998589004</v>
+        <v>0.149621928733334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.162553565292707</v>
+        <v>0.163169836867344</v>
       </c>
       <c r="E11" t="n">
-        <v>0.149684579278077</v>
+        <v>0.152739319688925</v>
       </c>
       <c r="F11" t="n">
-        <v>0.159013479224285</v>
+        <v>0.160179797073218</v>
       </c>
       <c r="G11" t="n">
-        <v>0.154243742058342</v>
+        <v>0.156403829374664</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>0.142951150067893</v>
+        <v>0.146455736509367</v>
       </c>
       <c r="D12" t="n">
-        <v>0.162534014660707</v>
+        <v>0.162213187542</v>
       </c>
       <c r="E12" t="n">
-        <v>0.147838394194858</v>
+        <v>0.15028928517981</v>
       </c>
       <c r="F12" t="n">
-        <v>0.158162168272607</v>
+        <v>0.158835531386749</v>
       </c>
       <c r="G12" t="n">
-        <v>0.152921674605081</v>
+        <v>0.154579456014615</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>0.140898575336811</v>
+        <v>0.143759104265711</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16325011461708</v>
+        <v>0.162219916625808</v>
       </c>
       <c r="E13" t="n">
-        <v>0.146692118945412</v>
+        <v>0.148247681017546</v>
       </c>
       <c r="F13" t="n">
-        <v>0.158060545215228</v>
+        <v>0.157915033263186</v>
       </c>
       <c r="G13" t="n">
-        <v>0.152266705967188</v>
+        <v>0.153164601643505</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>0.139389348045826</v>
+        <v>0.141714224856586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.164187670247946</v>
+        <v>0.162816656514721</v>
       </c>
       <c r="E14" t="n">
-        <v>0.145885055152733</v>
+        <v>0.146880600365187</v>
       </c>
       <c r="F14" t="n">
-        <v>0.158661265898104</v>
+        <v>0.157796943774516</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1524052660596</v>
+        <v>0.152389267476905</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.138583549802026</v>
+        <v>0.139990010893244</v>
       </c>
       <c r="D15" t="n">
-        <v>0.165919817191444</v>
+        <v>0.164013208792471</v>
       </c>
       <c r="E15" t="n">
-        <v>0.145661654687726</v>
+        <v>0.145870378441144</v>
       </c>
       <c r="F15" t="n">
-        <v>0.159470649246579</v>
+        <v>0.158080350578183</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1528441684488</v>
+        <v>0.152420880321795</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>0.137682883210721</v>
+        <v>0.138854924744298</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167269043682474</v>
+        <v>0.165516741303189</v>
       </c>
       <c r="E16" t="n">
-        <v>0.145095715888272</v>
+        <v>0.145754650818308</v>
       </c>
       <c r="F16" t="n">
-        <v>0.160285323632773</v>
+        <v>0.158761353037433</v>
       </c>
       <c r="G16" t="n">
-        <v>0.153265796450539</v>
+        <v>0.152577457281185</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>0.13609281773194</v>
+        <v>0.137741579793949</v>
       </c>
       <c r="D17" t="n">
-        <v>0.168313064050244</v>
+        <v>0.166800510507623</v>
       </c>
       <c r="E17" t="n">
-        <v>0.144219365434698</v>
+        <v>0.1451877589152</v>
       </c>
       <c r="F17" t="n">
-        <v>0.161195629367701</v>
+        <v>0.159673914485512</v>
       </c>
       <c r="G17" t="n">
-        <v>0.153205361642488</v>
+        <v>0.15301517471403</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>0.135148261056682</v>
+        <v>0.136451017686653</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170308310665578</v>
+        <v>0.167801826264279</v>
       </c>
       <c r="E18" t="n">
-        <v>0.144391224706369</v>
+        <v>0.144632683205836</v>
       </c>
       <c r="F18" t="n">
-        <v>0.162648651126918</v>
+        <v>0.160176448570896</v>
       </c>
       <c r="G18" t="n">
-        <v>0.154215279607144</v>
+        <v>0.152951363346455</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>0.13466734348603</v>
+        <v>0.135462709103589</v>
       </c>
       <c r="D19" t="n">
-        <v>0.172388496553883</v>
+        <v>0.169798318601085</v>
       </c>
       <c r="E19" t="n">
-        <v>0.144927640379705</v>
+        <v>0.144633411586</v>
       </c>
       <c r="F19" t="n">
-        <v>0.164345688516227</v>
+        <v>0.161448907275389</v>
       </c>
       <c r="G19" t="n">
-        <v>0.155471610741263</v>
+        <v>0.153716956806815</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>0.134097625662908</v>
+        <v>0.134941566695983</v>
       </c>
       <c r="D20" t="n">
-        <v>0.174419481659946</v>
+        <v>0.172147854735054</v>
       </c>
       <c r="E20" t="n">
-        <v>0.14573930199572</v>
+        <v>0.144878180303721</v>
       </c>
       <c r="F20" t="n">
-        <v>0.166042943851908</v>
+        <v>0.163577564791243</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1565436184569</v>
+        <v>0.154976692412121</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>0.134157115263463</v>
+        <v>0.134785439395169</v>
       </c>
       <c r="D21" t="n">
-        <v>0.176078939338431</v>
+        <v>0.174104951592232</v>
       </c>
       <c r="E21" t="n">
-        <v>0.145788906004512</v>
+        <v>0.145051748800319</v>
       </c>
       <c r="F21" t="n">
-        <v>0.167582556228745</v>
+        <v>0.165350543850313</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1572200688041</v>
+        <v>0.156508304295727</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>0.134468393351903</v>
+        <v>0.133975415273275</v>
       </c>
       <c r="D22" t="n">
-        <v>0.177188789446604</v>
+        <v>0.176026829503768</v>
       </c>
       <c r="E22" t="n">
-        <v>0.146023055841322</v>
+        <v>0.14535087894797</v>
       </c>
       <c r="F22" t="n">
-        <v>0.168529479066281</v>
+        <v>0.166738224652479</v>
       </c>
       <c r="G22" t="n">
-        <v>0.157996472142986</v>
+        <v>0.157391888614633</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134586699134451</v>
+        <v>0.134416874925567</v>
       </c>
       <c r="D23" t="n">
-        <v>0.178298592512295</v>
+        <v>0.177937662894105</v>
       </c>
       <c r="E23" t="n">
-        <v>0.146417018061696</v>
+        <v>0.145741734125045</v>
       </c>
       <c r="F23" t="n">
-        <v>0.169563812205606</v>
+        <v>0.168067113321802</v>
       </c>
       <c r="G23" t="n">
-        <v>0.158358022236666</v>
+        <v>0.157868567502156</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="n">
-        <v>0.134277976824693</v>
+        <v>0.13395998893955</v>
       </c>
       <c r="D24" t="n">
-        <v>0.180108388425239</v>
+        <v>0.178743332197311</v>
       </c>
       <c r="E24" t="n">
-        <v>0.146786743427827</v>
+        <v>0.145814303069697</v>
       </c>
       <c r="F24" t="n">
-        <v>0.170193956624697</v>
+        <v>0.168881626670446</v>
       </c>
       <c r="G24" t="n">
-        <v>0.15936436758295</v>
+        <v>0.158297053369262</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="n">
-        <v>0.133678191067254</v>
+        <v>0.133462337621181</v>
       </c>
       <c r="D25" t="n">
-        <v>0.181134430358487</v>
+        <v>0.180081313806997</v>
       </c>
       <c r="E25" t="n">
-        <v>0.146891471524478</v>
+        <v>0.146031941961504</v>
       </c>
       <c r="F25" t="n">
-        <v>0.170408537315571</v>
+        <v>0.169847873186651</v>
       </c>
       <c r="G25" t="n">
-        <v>0.159988894793857</v>
+        <v>0.158866314255078</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="n">
-        <v>0.133033472225751</v>
+        <v>0.132953170356872</v>
       </c>
       <c r="D26" t="n">
-        <v>0.182379042134498</v>
+        <v>0.180932123159754</v>
       </c>
       <c r="E26" t="n">
-        <v>0.147216511638786</v>
+        <v>0.146610405962838</v>
       </c>
       <c r="F26" t="n">
-        <v>0.171073481565762</v>
+        <v>0.171027307763027</v>
       </c>
       <c r="G26" t="n">
-        <v>0.160179274844773</v>
+        <v>0.159468826251277</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>0.132063773153799</v>
+        <v>0.132578212437267</v>
       </c>
       <c r="D27" t="n">
-        <v>0.183280677428666</v>
+        <v>0.181822670220886</v>
       </c>
       <c r="E27" t="n">
-        <v>0.146805168646703</v>
+        <v>0.146716386576374</v>
       </c>
       <c r="F27" t="n">
-        <v>0.171444445124665</v>
+        <v>0.171802634217773</v>
       </c>
       <c r="G27" t="n">
-        <v>0.160002355833074</v>
+        <v>0.159915021546673</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28" t="n">
-        <v>0.131859703647685</v>
+        <v>0.132140427020749</v>
       </c>
       <c r="D28" t="n">
-        <v>0.183639106800383</v>
+        <v>0.18226149549874</v>
       </c>
       <c r="E28" t="n">
-        <v>0.146490749004379</v>
+        <v>0.146238324821929</v>
       </c>
       <c r="F28" t="n">
-        <v>0.171938164381474</v>
+        <v>0.172070005921424</v>
       </c>
       <c r="G28" t="n">
-        <v>0.159751749352982</v>
+        <v>0.160040530207877</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.131856229216326</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.18284705877511</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.145859937242226</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.172107353851692</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.159946100922935</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2560,621 +2614,639 @@
         <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>670170.5</v>
+        <v>678392</v>
       </c>
       <c r="D3" t="n">
-        <v>679950.5</v>
+        <v>678392</v>
       </c>
       <c r="E3" t="n">
-        <v>672320.5</v>
+        <v>678392</v>
       </c>
       <c r="F3" t="n">
-        <v>677378</v>
+        <v>678392</v>
       </c>
       <c r="G3" t="n">
-        <v>674742</v>
+        <v>678392</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>651385.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>671390.4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>655489.25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>666529</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>660713</v>
-      </c>
-      <c r="H4"/>
+        <v>678392</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>633281.9</v>
+        <v>658625.9</v>
       </c>
       <c r="D5" t="n">
-        <v>664328.1</v>
+        <v>669954.8</v>
       </c>
       <c r="E5" t="n">
-        <v>639432</v>
+        <v>661089.75</v>
       </c>
       <c r="F5" t="n">
-        <v>656868</v>
+        <v>667062.25</v>
       </c>
       <c r="G5" t="n">
-        <v>647920</v>
+        <v>663982.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>616871.2</v>
+        <v>639489.1</v>
       </c>
       <c r="D6" t="n">
-        <v>661176.8</v>
+        <v>662991.1</v>
       </c>
       <c r="E6" t="n">
-        <v>625663</v>
+        <v>644642.5</v>
       </c>
       <c r="F6" t="n">
-        <v>650321.75</v>
+        <v>657315.5</v>
       </c>
       <c r="G6" t="n">
-        <v>637609.5</v>
+        <v>650860</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>601279</v>
+        <v>622506.5</v>
       </c>
       <c r="D7" t="n">
-        <v>660873.1</v>
+        <v>658800.6</v>
       </c>
       <c r="E7" t="n">
-        <v>615025.75</v>
+        <v>630385</v>
       </c>
       <c r="F7" t="n">
-        <v>646793.5</v>
+        <v>649680.75</v>
       </c>
       <c r="G7" t="n">
-        <v>630765</v>
+        <v>640014.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>588507.8</v>
+        <v>607213.2</v>
       </c>
       <c r="D8" t="n">
-        <v>663398.6</v>
+        <v>657938.6</v>
       </c>
       <c r="E8" t="n">
-        <v>607610</v>
+        <v>619310.5</v>
       </c>
       <c r="F8" t="n">
-        <v>645816</v>
+        <v>645354.5</v>
       </c>
       <c r="G8" t="n">
-        <v>626302</v>
+        <v>631955</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>577951.7</v>
+        <v>594172.5</v>
       </c>
       <c r="D9" t="n">
-        <v>669726.4</v>
+        <v>660945.6</v>
       </c>
       <c r="E9" t="n">
-        <v>602279.25</v>
+        <v>610012</v>
       </c>
       <c r="F9" t="n">
-        <v>649404.75</v>
+        <v>644229.75</v>
       </c>
       <c r="G9" t="n">
-        <v>625340.5</v>
+        <v>627549.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>571809.6</v>
+        <v>584565.8</v>
       </c>
       <c r="D10" t="n">
-        <v>679836.8</v>
+        <v>667328.6</v>
       </c>
       <c r="E10" t="n">
-        <v>600192</v>
+        <v>604315.5</v>
       </c>
       <c r="F10" t="n">
-        <v>654964.75</v>
+        <v>647884</v>
       </c>
       <c r="G10" t="n">
-        <v>626397</v>
+        <v>625833</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>565297</v>
+        <v>578455.7</v>
       </c>
       <c r="D11" t="n">
-        <v>688844.2</v>
+        <v>676533.1</v>
       </c>
       <c r="E11" t="n">
-        <v>597087.5</v>
+        <v>601415</v>
       </c>
       <c r="F11" t="n">
-        <v>661292.75</v>
+        <v>652431.5</v>
       </c>
       <c r="G11" t="n">
-        <v>627619</v>
+        <v>627184.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>554816.2</v>
+        <v>570558.1</v>
       </c>
       <c r="D12" t="n">
-        <v>698103.7</v>
+        <v>685907.4</v>
       </c>
       <c r="E12" t="n">
-        <v>589540</v>
+        <v>597808.25</v>
       </c>
       <c r="F12" t="n">
-        <v>663776</v>
+        <v>658499.5</v>
       </c>
       <c r="G12" t="n">
-        <v>627653</v>
+        <v>628385</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>549944.4</v>
+        <v>561254.5</v>
       </c>
       <c r="D13" t="n">
-        <v>712749.6</v>
+        <v>693320.4</v>
       </c>
       <c r="E13" t="n">
-        <v>590087.5</v>
+        <v>591486.75</v>
       </c>
       <c r="F13" t="n">
-        <v>673590.75</v>
+        <v>660988.75</v>
       </c>
       <c r="G13" t="n">
-        <v>631398</v>
+        <v>626874.5</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>546163.2</v>
+        <v>556640.6</v>
       </c>
       <c r="D14" t="n">
-        <v>727973.7</v>
+        <v>706780.6</v>
       </c>
       <c r="E14" t="n">
-        <v>592338.25</v>
+        <v>589429.5</v>
       </c>
       <c r="F14" t="n">
-        <v>683751</v>
+        <v>669715.5</v>
       </c>
       <c r="G14" t="n">
-        <v>638709</v>
+        <v>631980.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>544419.7</v>
+        <v>552561.9</v>
       </c>
       <c r="D15" t="n">
-        <v>744754.4</v>
+        <v>721747.6</v>
       </c>
       <c r="E15" t="n">
-        <v>595324</v>
+        <v>590544</v>
       </c>
       <c r="F15" t="n">
-        <v>697908.75</v>
+        <v>679968.5</v>
       </c>
       <c r="G15" t="n">
-        <v>645877</v>
+        <v>638919</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>543419.6</v>
+        <v>550003.5</v>
       </c>
       <c r="D16" t="n">
-        <v>755940.5</v>
+        <v>741632.3</v>
       </c>
       <c r="E16" t="n">
-        <v>597865.5</v>
+        <v>592411.25</v>
       </c>
       <c r="F16" t="n">
-        <v>709139.75</v>
+        <v>691833.75</v>
       </c>
       <c r="G16" t="n">
-        <v>652950</v>
+        <v>646748.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>543007.9</v>
+        <v>548774.9</v>
       </c>
       <c r="D17" t="n">
-        <v>772056.7</v>
+        <v>756333.9</v>
       </c>
       <c r="E17" t="n">
-        <v>600958.25</v>
+        <v>591653.75</v>
       </c>
       <c r="F17" t="n">
-        <v>718176</v>
+        <v>703000</v>
       </c>
       <c r="G17" t="n">
-        <v>658677.5</v>
+        <v>653704</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>540680.7</v>
+        <v>547589</v>
       </c>
       <c r="D18" t="n">
-        <v>786230</v>
+        <v>771137</v>
       </c>
       <c r="E18" t="n">
-        <v>604737.75</v>
+        <v>593422.75</v>
       </c>
       <c r="F18" t="n">
-        <v>729139</v>
+        <v>711237</v>
       </c>
       <c r="G18" t="n">
-        <v>664361</v>
+        <v>659331</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>541500.6</v>
+        <v>545397.2</v>
       </c>
       <c r="D19" t="n">
-        <v>801000.9</v>
+        <v>781746.6</v>
       </c>
       <c r="E19" t="n">
-        <v>605148</v>
+        <v>596988.75</v>
       </c>
       <c r="F19" t="n">
-        <v>738683</v>
+        <v>721616.5</v>
       </c>
       <c r="G19" t="n">
-        <v>669894</v>
+        <v>663600.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>540244.4</v>
+        <v>543465.5</v>
       </c>
       <c r="D20" t="n">
-        <v>815343.2</v>
+        <v>794910.2</v>
       </c>
       <c r="E20" t="n">
-        <v>610215.5</v>
+        <v>600616</v>
       </c>
       <c r="F20" t="n">
-        <v>746377</v>
+        <v>733650.25</v>
       </c>
       <c r="G20" t="n">
-        <v>674917</v>
+        <v>669088.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>538712.8</v>
+        <v>543530.7</v>
       </c>
       <c r="D21" t="n">
-        <v>825992.2</v>
+        <v>810222.5</v>
       </c>
       <c r="E21" t="n">
-        <v>611334.25</v>
+        <v>604114.5</v>
       </c>
       <c r="F21" t="n">
-        <v>753763.25</v>
+        <v>742719.75</v>
       </c>
       <c r="G21" t="n">
-        <v>681603</v>
+        <v>671908.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="n">
-        <v>538888.8</v>
+        <v>544208.9</v>
       </c>
       <c r="D22" t="n">
-        <v>838791.2</v>
+        <v>823730.8</v>
       </c>
       <c r="E22" t="n">
-        <v>612841</v>
+        <v>607377.5</v>
       </c>
       <c r="F22" t="n">
-        <v>764295.25</v>
+        <v>749672.25</v>
       </c>
       <c r="G22" t="n">
-        <v>685639</v>
+        <v>676592.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>534141.4</v>
+        <v>540337.5</v>
       </c>
       <c r="D23" t="n">
-        <v>848285.2</v>
+        <v>837987.3</v>
       </c>
       <c r="E23" t="n">
-        <v>614160.25</v>
+        <v>609420.75</v>
       </c>
       <c r="F23" t="n">
-        <v>772329.75</v>
+        <v>759471.75</v>
       </c>
       <c r="G23" t="n">
-        <v>690701.5</v>
+        <v>681777.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="n">
-        <v>532429.3</v>
+        <v>535210.9</v>
       </c>
       <c r="D24" t="n">
-        <v>855893</v>
+        <v>851399.5</v>
       </c>
       <c r="E24" t="n">
-        <v>614928.75</v>
+        <v>611982.75</v>
       </c>
       <c r="F24" t="n">
-        <v>779929</v>
+        <v>766752</v>
       </c>
       <c r="G24" t="n">
-        <v>694162</v>
+        <v>684362</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>529920.3</v>
+        <v>530081.7</v>
       </c>
       <c r="D25" t="n">
-        <v>865928.8</v>
+        <v>861777</v>
       </c>
       <c r="E25" t="n">
-        <v>612985</v>
+        <v>612479</v>
       </c>
       <c r="F25" t="n">
-        <v>782400.75</v>
+        <v>770971.5</v>
       </c>
       <c r="G25" t="n">
-        <v>694880</v>
+        <v>686836</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="n">
-        <v>526545.5</v>
+        <v>528780.9</v>
       </c>
       <c r="D26" t="n">
-        <v>875960.8</v>
+        <v>875161.1</v>
       </c>
       <c r="E26" t="n">
-        <v>612270.5</v>
+        <v>613005.5</v>
       </c>
       <c r="F26" t="n">
-        <v>787800.5</v>
+        <v>774992.75</v>
       </c>
       <c r="G26" t="n">
-        <v>696435.5</v>
+        <v>689486.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="n">
-        <v>523721.3</v>
+        <v>528923</v>
       </c>
       <c r="D27" t="n">
-        <v>883556.8</v>
+        <v>880792.5</v>
       </c>
       <c r="E27" t="n">
-        <v>611846.25</v>
+        <v>610256</v>
       </c>
       <c r="F27" t="n">
-        <v>792135.5</v>
+        <v>780665.25</v>
       </c>
       <c r="G27" t="n">
-        <v>697630.5</v>
+        <v>690800</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="n">
-        <v>521089.9</v>
+        <v>521666.8</v>
       </c>
       <c r="D28" t="n">
-        <v>887250.2</v>
+        <v>887342.9</v>
       </c>
       <c r="E28" t="n">
-        <v>607154</v>
+        <v>607888</v>
       </c>
       <c r="F28" t="n">
-        <v>792960.25</v>
+        <v>783284.25</v>
       </c>
       <c r="G28" t="n">
-        <v>698554</v>
+        <v>692336.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="n">
+        <v>522041.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>891444.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>603482.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>784171.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>693614</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3229,621 +3301,639 @@
         <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>325323</v>
+        <v>325645</v>
       </c>
       <c r="D3" t="n">
-        <v>325331.1</v>
+        <v>325645</v>
       </c>
       <c r="E3" t="n">
-        <v>325325</v>
+        <v>325645</v>
       </c>
       <c r="F3" t="n">
-        <v>325329</v>
+        <v>325645</v>
       </c>
       <c r="G3" t="n">
-        <v>325327</v>
+        <v>325645</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>324169.3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>326012.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>324611.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>325530.25</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>325100.5</v>
-      </c>
-      <c r="H4"/>
+        <v>325645</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>320823.5</v>
+        <v>324931.9</v>
       </c>
       <c r="D5" t="n">
-        <v>324132</v>
+        <v>326959.5</v>
       </c>
       <c r="E5" t="n">
-        <v>321643</v>
+        <v>325427.5</v>
       </c>
       <c r="F5" t="n">
-        <v>323373.5</v>
+        <v>326466.75</v>
       </c>
       <c r="G5" t="n">
-        <v>322451</v>
+        <v>325932</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>314692.3</v>
+        <v>322100.5</v>
       </c>
       <c r="D6" t="n">
-        <v>319253.6</v>
+        <v>325666.1</v>
       </c>
       <c r="E6" t="n">
-        <v>315786.25</v>
+        <v>323023</v>
       </c>
       <c r="F6" t="n">
-        <v>318220</v>
+        <v>324822.75</v>
       </c>
       <c r="G6" t="n">
-        <v>316970</v>
+        <v>323970.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>306948.1</v>
+        <v>316391.7</v>
       </c>
       <c r="D7" t="n">
-        <v>312876.8</v>
+        <v>321448.4</v>
       </c>
       <c r="E7" t="n">
-        <v>308350.75</v>
+        <v>317590.25</v>
       </c>
       <c r="F7" t="n">
-        <v>311287</v>
+        <v>320117.5</v>
       </c>
       <c r="G7" t="n">
-        <v>309856.5</v>
+        <v>318778</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>296558.6</v>
+        <v>308932.1</v>
       </c>
       <c r="D8" t="n">
-        <v>303734.2</v>
+        <v>315155.5</v>
       </c>
       <c r="E8" t="n">
-        <v>298482.25</v>
+        <v>310341.5</v>
       </c>
       <c r="F8" t="n">
-        <v>301906.5</v>
+        <v>313541.5</v>
       </c>
       <c r="G8" t="n">
-        <v>300111</v>
+        <v>311762</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>285053</v>
+        <v>298989</v>
       </c>
       <c r="D9" t="n">
-        <v>293042.5</v>
+        <v>306269.5</v>
       </c>
       <c r="E9" t="n">
-        <v>286977</v>
+        <v>300443.5</v>
       </c>
       <c r="F9" t="n">
-        <v>290996</v>
+        <v>303958</v>
       </c>
       <c r="G9" t="n">
-        <v>288926.5</v>
+        <v>301942.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>272350.3</v>
+        <v>287242</v>
       </c>
       <c r="D10" t="n">
-        <v>281225.4</v>
+        <v>295468.2</v>
       </c>
       <c r="E10" t="n">
-        <v>274433</v>
+        <v>288924.75</v>
       </c>
       <c r="F10" t="n">
-        <v>278832.25</v>
+        <v>292917.25</v>
       </c>
       <c r="G10" t="n">
-        <v>276457.5</v>
+        <v>290620.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>262530.9</v>
+        <v>274294.9</v>
       </c>
       <c r="D11" t="n">
-        <v>272160.5</v>
+        <v>283248.5</v>
       </c>
       <c r="E11" t="n">
-        <v>264572</v>
+        <v>276149.25</v>
       </c>
       <c r="F11" t="n">
-        <v>269529.75</v>
+        <v>280485</v>
       </c>
       <c r="G11" t="n">
-        <v>266914.5</v>
+        <v>277956.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>257968.7</v>
+        <v>264154.6</v>
       </c>
       <c r="D12" t="n">
-        <v>268498.6</v>
+        <v>273874.1</v>
       </c>
       <c r="E12" t="n">
-        <v>260146.25</v>
+        <v>266134.25</v>
       </c>
       <c r="F12" t="n">
-        <v>265453.25</v>
+        <v>270895.5</v>
       </c>
       <c r="G12" t="n">
-        <v>262684</v>
+        <v>268340.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>251316.9</v>
+        <v>259771.1</v>
       </c>
       <c r="D13" t="n">
-        <v>262915</v>
+        <v>270240.7</v>
       </c>
       <c r="E13" t="n">
-        <v>253641.25</v>
+        <v>261670.25</v>
       </c>
       <c r="F13" t="n">
-        <v>259361.25</v>
+        <v>266882.5</v>
       </c>
       <c r="G13" t="n">
-        <v>256270</v>
+        <v>264058.5</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>245500.6</v>
+        <v>252744.7</v>
       </c>
       <c r="D14" t="n">
-        <v>258533.2</v>
+        <v>264616.5</v>
       </c>
       <c r="E14" t="n">
-        <v>248211</v>
+        <v>255009.75</v>
       </c>
       <c r="F14" t="n">
-        <v>254407.75</v>
+        <v>260671.25</v>
       </c>
       <c r="G14" t="n">
-        <v>251133.5</v>
+        <v>257537</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="n">
-        <v>241947.5</v>
+        <v>246579.8</v>
       </c>
       <c r="D15" t="n">
-        <v>256131.3</v>
+        <v>259720.9</v>
       </c>
       <c r="E15" t="n">
-        <v>244996.25</v>
+        <v>249283.5</v>
       </c>
       <c r="F15" t="n">
-        <v>251818.25</v>
+        <v>255412.25</v>
       </c>
       <c r="G15" t="n">
-        <v>248031.5</v>
+        <v>251948</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>238131.7</v>
+        <v>242915.7</v>
       </c>
       <c r="D16" t="n">
-        <v>257038.6</v>
+        <v>257152.7</v>
       </c>
       <c r="E16" t="n">
-        <v>241958.5</v>
+        <v>245780.25</v>
       </c>
       <c r="F16" t="n">
-        <v>251354</v>
+        <v>252496.75</v>
       </c>
       <c r="G16" t="n">
-        <v>246614</v>
+        <v>248682.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>229484.3</v>
+        <v>240088.2</v>
       </c>
       <c r="D17" t="n">
-        <v>256732</v>
+        <v>256047.2</v>
       </c>
       <c r="E17" t="n">
-        <v>235449.25</v>
+        <v>243590.25</v>
       </c>
       <c r="F17" t="n">
-        <v>249726.5</v>
+        <v>250797.5</v>
       </c>
       <c r="G17" t="n">
-        <v>242309</v>
+        <v>246818.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>225300.2</v>
+        <v>232572.4</v>
       </c>
       <c r="D18" t="n">
-        <v>262763.4</v>
+        <v>253758.1</v>
       </c>
       <c r="E18" t="n">
-        <v>233660.75</v>
+        <v>237288</v>
       </c>
       <c r="F18" t="n">
-        <v>253252.25</v>
+        <v>247882.5</v>
       </c>
       <c r="G18" t="n">
-        <v>243487.5</v>
+        <v>242441.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>222716</v>
+        <v>228632.3</v>
       </c>
       <c r="D19" t="n">
-        <v>273215.7</v>
+        <v>258185.6</v>
       </c>
       <c r="E19" t="n">
-        <v>233345</v>
+        <v>235618</v>
       </c>
       <c r="F19" t="n">
-        <v>259254.25</v>
+        <v>251387</v>
       </c>
       <c r="G19" t="n">
-        <v>246220</v>
+        <v>243498</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>218923.3</v>
+        <v>225555.9</v>
       </c>
       <c r="D20" t="n">
-        <v>282153.9</v>
+        <v>267139.9</v>
       </c>
       <c r="E20" t="n">
-        <v>232993.25</v>
+        <v>235319.25</v>
       </c>
       <c r="F20" t="n">
-        <v>266533.5</v>
+        <v>257009.75</v>
       </c>
       <c r="G20" t="n">
-        <v>249137.5</v>
+        <v>246613</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>216699.8</v>
+        <v>222080.3</v>
       </c>
       <c r="D21" t="n">
-        <v>286770.2</v>
+        <v>278114.5</v>
       </c>
       <c r="E21" t="n">
-        <v>233520</v>
+        <v>234567.5</v>
       </c>
       <c r="F21" t="n">
-        <v>271302.75</v>
+        <v>263834.25</v>
       </c>
       <c r="G21" t="n">
-        <v>251639.5</v>
+        <v>250043.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>213867.6</v>
+        <v>216981.5</v>
       </c>
       <c r="D22" t="n">
-        <v>292512.9</v>
+        <v>286794.5</v>
       </c>
       <c r="E22" t="n">
-        <v>233812.25</v>
+        <v>233334.25</v>
       </c>
       <c r="F22" t="n">
-        <v>274511.75</v>
+        <v>269138</v>
       </c>
       <c r="G22" t="n">
-        <v>253616</v>
+        <v>251478</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="n">
-        <v>213679.4</v>
+        <v>215355.3</v>
       </c>
       <c r="D23" t="n">
-        <v>296849.3</v>
+        <v>290464.6</v>
       </c>
       <c r="E23" t="n">
-        <v>234663.75</v>
+        <v>233004</v>
       </c>
       <c r="F23" t="n">
-        <v>276767.25</v>
+        <v>272072.75</v>
       </c>
       <c r="G23" t="n">
-        <v>255602.5</v>
+        <v>253238</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="n">
-        <v>213314.5</v>
+        <v>214507</v>
       </c>
       <c r="D24" t="n">
-        <v>301105.3</v>
+        <v>294828.8</v>
       </c>
       <c r="E24" t="n">
-        <v>235748.75</v>
+        <v>233728</v>
       </c>
       <c r="F24" t="n">
-        <v>279878.25</v>
+        <v>275031.25</v>
       </c>
       <c r="G24" t="n">
-        <v>258225</v>
+        <v>255323</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="n">
-        <v>211790.2</v>
+        <v>213798.5</v>
       </c>
       <c r="D25" t="n">
-        <v>305517.1</v>
+        <v>301502.5</v>
       </c>
       <c r="E25" t="n">
-        <v>236838.5</v>
+        <v>232460.5</v>
       </c>
       <c r="F25" t="n">
-        <v>283831.25</v>
+        <v>279104.75</v>
       </c>
       <c r="G25" t="n">
-        <v>261346</v>
+        <v>257487</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>212396.2</v>
+        <v>214880.6</v>
       </c>
       <c r="D26" t="n">
-        <v>311349.2</v>
+        <v>305336.7</v>
       </c>
       <c r="E26" t="n">
-        <v>237266.25</v>
+        <v>233120.25</v>
       </c>
       <c r="F26" t="n">
-        <v>288632</v>
+        <v>282742</v>
       </c>
       <c r="G26" t="n">
-        <v>264579.5</v>
+        <v>259945.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27" t="n">
-        <v>210503.8</v>
+        <v>213534.8</v>
       </c>
       <c r="D27" t="n">
-        <v>318621.1</v>
+        <v>309475.7</v>
       </c>
       <c r="E27" t="n">
-        <v>238781.25</v>
+        <v>234009.5</v>
       </c>
       <c r="F27" t="n">
-        <v>293067.75</v>
+        <v>286841.25</v>
       </c>
       <c r="G27" t="n">
-        <v>266613.5</v>
+        <v>261934</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="n">
-        <v>212931.2</v>
+        <v>212501.2</v>
       </c>
       <c r="D28" t="n">
-        <v>323567.8</v>
+        <v>316096.8</v>
       </c>
       <c r="E28" t="n">
-        <v>240297.75</v>
+        <v>235529</v>
       </c>
       <c r="F28" t="n">
-        <v>297304.75</v>
+        <v>290452.25</v>
       </c>
       <c r="G28" t="n">
-        <v>269497</v>
+        <v>264336</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="n">
+        <v>213076.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>321591.6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>237072.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>295660.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>266968.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3898,621 +3988,639 @@
         <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>50825</v>
+        <v>51133</v>
       </c>
       <c r="D3" t="n">
-        <v>50826</v>
+        <v>51133</v>
       </c>
       <c r="E3" t="n">
-        <v>50826</v>
+        <v>51133</v>
       </c>
       <c r="F3" t="n">
-        <v>50826</v>
+        <v>51133</v>
       </c>
       <c r="G3" t="n">
-        <v>50826</v>
+        <v>51133</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="n">
-        <v>48532.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48679</v>
-      </c>
-      <c r="E4" t="n">
-        <v>48568</v>
-      </c>
-      <c r="F4" t="n">
-        <v>48641</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>48607</v>
-      </c>
-      <c r="H4"/>
+        <v>64863</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>49236.9</v>
+        <v>48849</v>
       </c>
       <c r="D5" t="n">
-        <v>49553</v>
+        <v>49009</v>
       </c>
       <c r="E5" t="n">
-        <v>49315</v>
+        <v>48888</v>
       </c>
       <c r="F5" t="n">
-        <v>49478</v>
+        <v>48970</v>
       </c>
       <c r="G5" t="n">
-        <v>49394</v>
+        <v>48928</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>52035.9</v>
+        <v>49493.8</v>
       </c>
       <c r="D6" t="n">
-        <v>52565.5</v>
+        <v>49838.1</v>
       </c>
       <c r="E6" t="n">
-        <v>52166.75</v>
+        <v>49585</v>
       </c>
       <c r="F6" t="n">
-        <v>52446</v>
+        <v>49757</v>
       </c>
       <c r="G6" t="n">
-        <v>52297</v>
+        <v>49677.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>47020.9</v>
+        <v>52306</v>
       </c>
       <c r="D7" t="n">
-        <v>47828.1</v>
+        <v>52889.1</v>
       </c>
       <c r="E7" t="n">
-        <v>47217.75</v>
+        <v>52448.75</v>
       </c>
       <c r="F7" t="n">
-        <v>47629.5</v>
+        <v>52742</v>
       </c>
       <c r="G7" t="n">
-        <v>47427.5</v>
+        <v>52597.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>45009.9</v>
+        <v>47210.7</v>
       </c>
       <c r="D8" t="n">
-        <v>46163.2</v>
+        <v>48043.6</v>
       </c>
       <c r="E8" t="n">
-        <v>45296.25</v>
+        <v>47405</v>
       </c>
       <c r="F8" t="n">
-        <v>45856.25</v>
+        <v>47839.25</v>
       </c>
       <c r="G8" t="n">
-        <v>45588.5</v>
+        <v>47604</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>44994.6</v>
+        <v>45130</v>
       </c>
       <c r="D9" t="n">
-        <v>46517.5</v>
+        <v>46299</v>
       </c>
       <c r="E9" t="n">
-        <v>45349.5</v>
+        <v>45384</v>
       </c>
       <c r="F9" t="n">
-        <v>46094.25</v>
+        <v>45976.25</v>
       </c>
       <c r="G9" t="n">
-        <v>45735</v>
+        <v>45651.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>42758.2</v>
+        <v>45008.7</v>
       </c>
       <c r="D10" t="n">
-        <v>52679.7</v>
+        <v>46564</v>
       </c>
       <c r="E10" t="n">
-        <v>45079.75</v>
+        <v>45349.25</v>
       </c>
       <c r="F10" t="n">
-        <v>50282</v>
+        <v>46131</v>
       </c>
       <c r="G10" t="n">
-        <v>47564</v>
+        <v>45700</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>42497.4</v>
+        <v>46833</v>
       </c>
       <c r="D11" t="n">
-        <v>54013.7</v>
+        <v>48825.1</v>
       </c>
       <c r="E11" t="n">
-        <v>44954</v>
+        <v>47248</v>
       </c>
       <c r="F11" t="n">
-        <v>51036.5</v>
+        <v>48271.25</v>
       </c>
       <c r="G11" t="n">
-        <v>47870</v>
+        <v>47693</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>41935.2</v>
+        <v>42514.8</v>
       </c>
       <c r="D12" t="n">
-        <v>54948.2</v>
+        <v>54037.4</v>
       </c>
       <c r="E12" t="n">
-        <v>44931.5</v>
+        <v>45107.25</v>
       </c>
       <c r="F12" t="n">
-        <v>51900.75</v>
+        <v>51034.75</v>
       </c>
       <c r="G12" t="n">
-        <v>48278</v>
+        <v>47801</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>41340.2</v>
+        <v>41748.5</v>
       </c>
       <c r="D13" t="n">
-        <v>55975.3</v>
+        <v>54907</v>
       </c>
       <c r="E13" t="n">
-        <v>44745.25</v>
+        <v>44974.5</v>
       </c>
       <c r="F13" t="n">
-        <v>52543.25</v>
+        <v>51543.25</v>
       </c>
       <c r="G13" t="n">
-        <v>48776</v>
+        <v>48218</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>41402.4</v>
+        <v>41442</v>
       </c>
       <c r="D14" t="n">
-        <v>56754.4</v>
+        <v>55696.5</v>
       </c>
       <c r="E14" t="n">
-        <v>45265.25</v>
+        <v>44729.25</v>
       </c>
       <c r="F14" t="n">
-        <v>53020</v>
+        <v>52456.5</v>
       </c>
       <c r="G14" t="n">
-        <v>49052</v>
+        <v>48623.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>41053.2</v>
+        <v>41397.9</v>
       </c>
       <c r="D15" t="n">
-        <v>57444.3</v>
+        <v>56616.1</v>
       </c>
       <c r="E15" t="n">
-        <v>45167.25</v>
+        <v>45010.5</v>
       </c>
       <c r="F15" t="n">
-        <v>53778.5</v>
+        <v>53009.5</v>
       </c>
       <c r="G15" t="n">
-        <v>49453</v>
+        <v>49066.5</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>40717.7</v>
+        <v>40962.4</v>
       </c>
       <c r="D16" t="n">
-        <v>58561.4</v>
+        <v>57107.8</v>
       </c>
       <c r="E16" t="n">
-        <v>45295.5</v>
+        <v>45063.25</v>
       </c>
       <c r="F16" t="n">
-        <v>54314.25</v>
+        <v>53565</v>
       </c>
       <c r="G16" t="n">
-        <v>49821.5</v>
+        <v>49305.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>41032</v>
+        <v>40724.4</v>
       </c>
       <c r="D17" t="n">
-        <v>59485</v>
+        <v>58665.3</v>
       </c>
       <c r="E17" t="n">
-        <v>45353.5</v>
+        <v>45071</v>
       </c>
       <c r="F17" t="n">
-        <v>55009.25</v>
+        <v>54101</v>
       </c>
       <c r="G17" t="n">
-        <v>50348</v>
+        <v>49765.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>40849.1</v>
+        <v>41225.8</v>
       </c>
       <c r="D18" t="n">
-        <v>60178.7</v>
+        <v>59384.9</v>
       </c>
       <c r="E18" t="n">
-        <v>45742.25</v>
+        <v>45376.5</v>
       </c>
       <c r="F18" t="n">
-        <v>56244.25</v>
+        <v>54696.75</v>
       </c>
       <c r="G18" t="n">
-        <v>50793.5</v>
+        <v>50094</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>40769.7</v>
+        <v>40943.8</v>
       </c>
       <c r="D19" t="n">
-        <v>61681.1</v>
+        <v>60243.7</v>
       </c>
       <c r="E19" t="n">
-        <v>46032</v>
+        <v>45310.75</v>
       </c>
       <c r="F19" t="n">
-        <v>56785.75</v>
+        <v>55629.25</v>
       </c>
       <c r="G19" t="n">
-        <v>51574</v>
+        <v>50941.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>40501.6</v>
+        <v>40774.6</v>
       </c>
       <c r="D20" t="n">
-        <v>62626.7</v>
+        <v>61147.4</v>
       </c>
       <c r="E20" t="n">
-        <v>46420.75</v>
+        <v>45593</v>
       </c>
       <c r="F20" t="n">
-        <v>57601.5</v>
+        <v>56517.75</v>
       </c>
       <c r="G20" t="n">
-        <v>52224</v>
+        <v>51311.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>40788.8</v>
+        <v>40789.3</v>
       </c>
       <c r="D21" t="n">
-        <v>63511.2</v>
+        <v>62723.1</v>
       </c>
       <c r="E21" t="n">
-        <v>46549</v>
+        <v>45797</v>
       </c>
       <c r="F21" t="n">
-        <v>58751.75</v>
+        <v>57373.5</v>
       </c>
       <c r="G21" t="n">
-        <v>52832</v>
+        <v>51561.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="n">
-        <v>40994.7</v>
+        <v>40848.3</v>
       </c>
       <c r="D22" t="n">
-        <v>64762.2</v>
+        <v>63829.2</v>
       </c>
       <c r="E22" t="n">
-        <v>47090.5</v>
+        <v>46243.5</v>
       </c>
       <c r="F22" t="n">
-        <v>59191.75</v>
+        <v>58328</v>
       </c>
       <c r="G22" t="n">
-        <v>53465</v>
+        <v>52341.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="n">
-        <v>41093.5</v>
+        <v>41049.4</v>
       </c>
       <c r="D23" t="n">
-        <v>66400.7</v>
+        <v>64660.4</v>
       </c>
       <c r="E23" t="n">
-        <v>47502.75</v>
+        <v>46787.25</v>
       </c>
       <c r="F23" t="n">
-        <v>60426</v>
+        <v>59193.25</v>
       </c>
       <c r="G23" t="n">
-        <v>53921.5</v>
+        <v>52493</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="n">
-        <v>41089.6</v>
+        <v>40704.7</v>
       </c>
       <c r="D24" t="n">
-        <v>67645</v>
+        <v>66403.1</v>
       </c>
       <c r="E24" t="n">
-        <v>47682.5</v>
+        <v>47129.25</v>
       </c>
       <c r="F24" t="n">
-        <v>60829.25</v>
+        <v>60018.5</v>
       </c>
       <c r="G24" t="n">
-        <v>53966</v>
+        <v>52993</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="n">
-        <v>41443.8</v>
+        <v>41305.4</v>
       </c>
       <c r="D25" t="n">
-        <v>68469.2</v>
+        <v>67079.6</v>
       </c>
       <c r="E25" t="n">
-        <v>47859</v>
+        <v>47078.25</v>
       </c>
       <c r="F25" t="n">
-        <v>60945.25</v>
+        <v>60750.5</v>
       </c>
       <c r="G25" t="n">
-        <v>54144</v>
+        <v>53285</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" t="n">
-        <v>40572.3</v>
+        <v>41046.5</v>
       </c>
       <c r="D26" t="n">
-        <v>69324.2</v>
+        <v>68440.8</v>
       </c>
       <c r="E26" t="n">
-        <v>47669.5</v>
+        <v>47256.75</v>
       </c>
       <c r="F26" t="n">
-        <v>61290</v>
+        <v>61360.25</v>
       </c>
       <c r="G26" t="n">
-        <v>54678.5</v>
+        <v>53573</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="C27" t="n">
-        <v>40660.1</v>
+        <v>40752</v>
       </c>
       <c r="D27" t="n">
-        <v>69938</v>
+        <v>69962.1</v>
       </c>
       <c r="E27" t="n">
-        <v>48060.25</v>
+        <v>47283.5</v>
       </c>
       <c r="F27" t="n">
-        <v>62431.5</v>
+        <v>61712</v>
       </c>
       <c r="G27" t="n">
-        <v>54752.5</v>
+        <v>54009</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="n">
-        <v>40244.3</v>
+        <v>40908.9</v>
       </c>
       <c r="D28" t="n">
-        <v>70573.9</v>
+        <v>70295.7</v>
       </c>
       <c r="E28" t="n">
-        <v>47543.25</v>
+        <v>47182.75</v>
       </c>
       <c r="F28" t="n">
-        <v>63009.5</v>
+        <v>61752.25</v>
       </c>
       <c r="G28" t="n">
-        <v>54750</v>
+        <v>54426.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="n">
+        <v>40555.1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>70650</v>
+      </c>
+      <c r="E29" t="n">
+        <v>47045.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>62364.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>54640.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4567,621 +4675,639 @@
         <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>40510.1</v>
+        <v>44364</v>
       </c>
       <c r="D3" t="n">
-        <v>50312.4</v>
+        <v>44364</v>
       </c>
       <c r="E3" t="n">
-        <v>42657.5</v>
+        <v>44364</v>
       </c>
       <c r="F3" t="n">
-        <v>47735.25</v>
+        <v>44364</v>
       </c>
       <c r="G3" t="n">
-        <v>45095</v>
+        <v>44364</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
-        <v>40265.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51478.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>42750.25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>48600.5</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>45508</v>
-      </c>
-      <c r="H4"/>
+        <v>44364.3370385992</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>39556.8</v>
+        <v>40213.8</v>
       </c>
       <c r="D5" t="n">
-        <v>52141.9</v>
+        <v>51408.1</v>
       </c>
       <c r="E5" t="n">
-        <v>42585</v>
+        <v>42693.75</v>
       </c>
       <c r="F5" t="n">
-        <v>49433</v>
+        <v>48534.75</v>
       </c>
       <c r="G5" t="n">
-        <v>45952.5</v>
+        <v>45448.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>39275.7</v>
+        <v>39523.2</v>
       </c>
       <c r="D6" t="n">
-        <v>53199.6</v>
+        <v>52179.4</v>
       </c>
       <c r="E6" t="n">
-        <v>42435.75</v>
+        <v>42526.25</v>
       </c>
       <c r="F6" t="n">
-        <v>50058.75</v>
+        <v>49304.25</v>
       </c>
       <c r="G6" t="n">
-        <v>46379.5</v>
+        <v>45849</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>39180</v>
+        <v>39241.4</v>
       </c>
       <c r="D7" t="n">
-        <v>54136.6</v>
+        <v>53211.2</v>
       </c>
       <c r="E7" t="n">
-        <v>42718.75</v>
+        <v>42408.25</v>
       </c>
       <c r="F7" t="n">
-        <v>50517.75</v>
+        <v>50016</v>
       </c>
       <c r="G7" t="n">
-        <v>46612.5</v>
+        <v>46286.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>39077.8</v>
+        <v>39370.7</v>
       </c>
       <c r="D8" t="n">
-        <v>54688.9</v>
+        <v>54051.2</v>
       </c>
       <c r="E8" t="n">
-        <v>42897</v>
+        <v>42609.5</v>
       </c>
       <c r="F8" t="n">
-        <v>51096.5</v>
+        <v>50492</v>
       </c>
       <c r="G8" t="n">
-        <v>47008</v>
+        <v>46554</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>39074.7</v>
+        <v>38964.1</v>
       </c>
       <c r="D9" t="n">
-        <v>55710.1</v>
+        <v>54581.2</v>
       </c>
       <c r="E9" t="n">
-        <v>43055</v>
+        <v>42732</v>
       </c>
       <c r="F9" t="n">
-        <v>51612.75</v>
+        <v>50887.75</v>
       </c>
       <c r="G9" t="n">
-        <v>47409.5</v>
+        <v>46935</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>39224</v>
+        <v>38825.7</v>
       </c>
       <c r="D10" t="n">
-        <v>56404</v>
+        <v>55864.2</v>
       </c>
       <c r="E10" t="n">
-        <v>43164.75</v>
+        <v>42805.75</v>
       </c>
       <c r="F10" t="n">
-        <v>52493</v>
+        <v>51653.25</v>
       </c>
       <c r="G10" t="n">
-        <v>47869</v>
+        <v>47222.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="n">
-        <v>38789.6</v>
+        <v>39104.9</v>
       </c>
       <c r="D11" t="n">
-        <v>57123</v>
+        <v>56455.3</v>
       </c>
       <c r="E11" t="n">
-        <v>43600.5</v>
+        <v>43152</v>
       </c>
       <c r="F11" t="n">
-        <v>53427</v>
+        <v>52005</v>
       </c>
       <c r="G11" t="n">
-        <v>48425</v>
+        <v>47686.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>38745.8</v>
+        <v>38824.8</v>
       </c>
       <c r="D12" t="n">
-        <v>58410.8</v>
+        <v>57450.5</v>
       </c>
       <c r="E12" t="n">
-        <v>43761.75</v>
+        <v>43031.5</v>
       </c>
       <c r="F12" t="n">
-        <v>54108.75</v>
+        <v>52978.25</v>
       </c>
       <c r="G12" t="n">
-        <v>48978.5</v>
+        <v>48372.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>38774.7</v>
+        <v>38833.8</v>
       </c>
       <c r="D13" t="n">
-        <v>59309.8</v>
+        <v>58104.5</v>
       </c>
       <c r="E13" t="n">
-        <v>44163</v>
+        <v>43439.25</v>
       </c>
       <c r="F13" t="n">
-        <v>54830.75</v>
+        <v>53991</v>
       </c>
       <c r="G13" t="n">
-        <v>49944</v>
+        <v>49109</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>38910.1</v>
+        <v>39077.3</v>
       </c>
       <c r="D14" t="n">
-        <v>60542.2</v>
+        <v>59948.3</v>
       </c>
       <c r="E14" t="n">
-        <v>44539.25</v>
+        <v>43646.5</v>
       </c>
       <c r="F14" t="n">
-        <v>56037.75</v>
+        <v>54515</v>
       </c>
       <c r="G14" t="n">
-        <v>50479</v>
+        <v>49483.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>39094.9</v>
+        <v>39204.7</v>
       </c>
       <c r="D15" t="n">
-        <v>61787.8</v>
+        <v>60769</v>
       </c>
       <c r="E15" t="n">
-        <v>44956.25</v>
+        <v>44445.75</v>
       </c>
       <c r="F15" t="n">
-        <v>56478.25</v>
+        <v>55722.75</v>
       </c>
       <c r="G15" t="n">
-        <v>51122.5</v>
+        <v>50378.5</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>38912.3</v>
+        <v>39130</v>
       </c>
       <c r="D16" t="n">
-        <v>63054.5</v>
+        <v>61860.7</v>
       </c>
       <c r="E16" t="n">
-        <v>45224.25</v>
+        <v>44744.5</v>
       </c>
       <c r="F16" t="n">
-        <v>57412.75</v>
+        <v>56473.25</v>
       </c>
       <c r="G16" t="n">
-        <v>51504.5</v>
+        <v>50664</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>39394.3</v>
+        <v>38568.2</v>
       </c>
       <c r="D17" t="n">
-        <v>64054.3</v>
+        <v>62739.2</v>
       </c>
       <c r="E17" t="n">
-        <v>45369.5</v>
+        <v>45119.5</v>
       </c>
       <c r="F17" t="n">
-        <v>57897.75</v>
+        <v>57391.75</v>
       </c>
       <c r="G17" t="n">
-        <v>51563.5</v>
+        <v>50949</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="n">
-        <v>39585</v>
+        <v>39079.2</v>
       </c>
       <c r="D18" t="n">
-        <v>65125.7</v>
+        <v>63405.4</v>
       </c>
       <c r="E18" t="n">
-        <v>45762</v>
+        <v>45102.5</v>
       </c>
       <c r="F18" t="n">
-        <v>58267.5</v>
+        <v>58007.25</v>
       </c>
       <c r="G18" t="n">
-        <v>51756</v>
+        <v>51273</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>39040.3</v>
+        <v>39172.6</v>
       </c>
       <c r="D19" t="n">
-        <v>65577.7</v>
+        <v>64903.8</v>
       </c>
       <c r="E19" t="n">
-        <v>45809</v>
+        <v>45159.75</v>
       </c>
       <c r="F19" t="n">
-        <v>58555.25</v>
+        <v>58570.75</v>
       </c>
       <c r="G19" t="n">
-        <v>52050.5</v>
+        <v>51465.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="n">
-        <v>39332.4</v>
+        <v>39016.1</v>
       </c>
       <c r="D20" t="n">
-        <v>66051.4</v>
+        <v>66074.4</v>
       </c>
       <c r="E20" t="n">
-        <v>45723</v>
+        <v>45127.5</v>
       </c>
       <c r="F20" t="n">
-        <v>59530</v>
+        <v>58798.5</v>
       </c>
       <c r="G20" t="n">
-        <v>52293.5</v>
+        <v>51866</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>38513.2</v>
+        <v>39154.9</v>
       </c>
       <c r="D21" t="n">
-        <v>67102.3</v>
+        <v>66733</v>
       </c>
       <c r="E21" t="n">
-        <v>45431</v>
+        <v>45191.75</v>
       </c>
       <c r="F21" t="n">
-        <v>59827.25</v>
+        <v>58912</v>
       </c>
       <c r="G21" t="n">
-        <v>51934</v>
+        <v>51938</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>37803.6</v>
+        <v>38879.1</v>
       </c>
       <c r="D22" t="n">
-        <v>67445.8</v>
+        <v>67614.5</v>
       </c>
       <c r="E22" t="n">
-        <v>44993.25</v>
+        <v>45098</v>
       </c>
       <c r="F22" t="n">
-        <v>60013</v>
+        <v>59610.25</v>
       </c>
       <c r="G22" t="n">
-        <v>52117.5</v>
+        <v>52223.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>38293.3</v>
+        <v>38330.2</v>
       </c>
       <c r="D23" t="n">
-        <v>67552.6</v>
+        <v>67532.9</v>
       </c>
       <c r="E23" t="n">
-        <v>44479</v>
+        <v>44829.75</v>
       </c>
       <c r="F23" t="n">
-        <v>59915.75</v>
+        <v>59293.5</v>
       </c>
       <c r="G23" t="n">
-        <v>51701.5</v>
+        <v>52068.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>37710.9</v>
+        <v>37813.8</v>
       </c>
       <c r="D24" t="n">
-        <v>67319.9</v>
+        <v>67188.4</v>
       </c>
       <c r="E24" t="n">
-        <v>44074.5</v>
+        <v>44566</v>
       </c>
       <c r="F24" t="n">
-        <v>59838.5</v>
+        <v>58924.25</v>
       </c>
       <c r="G24" t="n">
-        <v>51573.5</v>
+        <v>51716</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>36854.1</v>
+        <v>37721.2</v>
       </c>
       <c r="D25" t="n">
-        <v>67370.3</v>
+        <v>66926.9</v>
       </c>
       <c r="E25" t="n">
-        <v>43538.75</v>
+        <v>44349.75</v>
       </c>
       <c r="F25" t="n">
-        <v>59321</v>
+        <v>58612.25</v>
       </c>
       <c r="G25" t="n">
-        <v>51390.5</v>
+        <v>51415</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>36548.5</v>
+        <v>36460.6</v>
       </c>
       <c r="D26" t="n">
-        <v>66571.6</v>
+        <v>66386.9</v>
       </c>
       <c r="E26" t="n">
-        <v>43256</v>
+        <v>43803.5</v>
       </c>
       <c r="F26" t="n">
-        <v>58793.25</v>
+        <v>58722.25</v>
       </c>
       <c r="G26" t="n">
-        <v>50934</v>
+        <v>50786.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>35282</v>
+        <v>36450.8</v>
       </c>
       <c r="D27" t="n">
-        <v>66399.2</v>
+        <v>65975.6</v>
       </c>
       <c r="E27" t="n">
-        <v>42545</v>
+        <v>43178.75</v>
       </c>
       <c r="F27" t="n">
-        <v>57944.5</v>
+        <v>58396.5</v>
       </c>
       <c r="G27" t="n">
-        <v>50116.5</v>
+        <v>50350.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>34055.8</v>
+        <v>35950</v>
       </c>
       <c r="D28" t="n">
-        <v>66158.3</v>
+        <v>65797.5</v>
       </c>
       <c r="E28" t="n">
-        <v>42025.25</v>
+        <v>42462.25</v>
       </c>
       <c r="F28" t="n">
-        <v>58112.75</v>
+        <v>57844.25</v>
       </c>
       <c r="G28" t="n">
-        <v>49900.5</v>
+        <v>49990.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="n">
+        <v>34962</v>
+      </c>
+      <c r="D29" t="n">
+        <v>65327.6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>41546.75</v>
+      </c>
+      <c r="F29" t="n">
+        <v>56890.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>49189.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5236,16 +5362,16 @@
         <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D3" t="n">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E3" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F3" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G3" t="n">
         <v>168</v>
@@ -5254,603 +5380,621 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="n">
-        <v>144</v>
-      </c>
-      <c r="D4" t="n">
-        <v>186</v>
-      </c>
-      <c r="E4" t="n">
-        <v>152</v>
-      </c>
-      <c r="F4" t="n">
-        <v>175</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>163.5</v>
-      </c>
-      <c r="H4"/>
+        <v>168.031765672152</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D5" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F5" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D6" t="n">
-        <v>187</v>
+        <v>194.1</v>
       </c>
       <c r="E6" t="n">
-        <v>142</v>
+        <v>153.75</v>
       </c>
       <c r="F6" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G6" t="n">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D7" t="n">
-        <v>184</v>
+        <v>193.1</v>
       </c>
       <c r="E7" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F7" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G7" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>119</v>
+        <v>131.9</v>
       </c>
       <c r="D8" t="n">
-        <v>181.1</v>
+        <v>192.1</v>
       </c>
       <c r="E8" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F8" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G8" t="n">
-        <v>146.5</v>
+        <v>157</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D9" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E9" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F9" t="n">
-        <v>161</v>
+        <v>169.25</v>
       </c>
       <c r="G9" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D10" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E10" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F10" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G10" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D11" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E11" t="n">
-        <v>119</v>
+        <v>127.75</v>
       </c>
       <c r="F11" t="n">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G11" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D12" t="n">
-        <v>178</v>
+        <v>186.1</v>
       </c>
       <c r="E12" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F12" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G12" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D13" t="n">
-        <v>175.1</v>
+        <v>185</v>
       </c>
       <c r="E13" t="n">
-        <v>111</v>
+        <v>119.75</v>
       </c>
       <c r="F13" t="n">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G13" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="n">
-        <v>93.9</v>
+        <v>102</v>
       </c>
       <c r="D14" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E14" t="n">
-        <v>108</v>
+        <v>115.75</v>
       </c>
       <c r="F14" t="n">
-        <v>146.25</v>
+        <v>155</v>
       </c>
       <c r="G14" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D15" t="n">
-        <v>173</v>
+        <v>180.1</v>
       </c>
       <c r="E15" t="n">
-        <v>105.75</v>
+        <v>112</v>
       </c>
       <c r="F15" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G15" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D16" t="n">
-        <v>172</v>
+        <v>180.1</v>
       </c>
       <c r="E16" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F16" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G16" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D17" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E17" t="n">
-        <v>99</v>
+        <v>106.75</v>
       </c>
       <c r="F17" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G17" t="n">
-        <v>117</v>
+        <v>125.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D18" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E18" t="n">
-        <v>97</v>
+        <v>103.75</v>
       </c>
       <c r="F18" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G18" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D19" t="n">
-        <v>169.1</v>
+        <v>182</v>
       </c>
       <c r="E19" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G19" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D20" t="n">
-        <v>169</v>
+        <v>177.1</v>
       </c>
       <c r="E20" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F20" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G20" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="C21" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D21" t="n">
-        <v>170</v>
+        <v>176.1</v>
       </c>
       <c r="E21" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F21" t="n">
-        <v>139</v>
+        <v>144.25</v>
       </c>
       <c r="G21" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D22" t="n">
-        <v>168.1</v>
+        <v>176.1</v>
       </c>
       <c r="E22" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F22" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G22" t="n">
-        <v>109.5</v>
+        <v>116.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D23" t="n">
-        <v>167.1</v>
+        <v>175</v>
       </c>
       <c r="E23" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F23" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G23" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D24" t="n">
-        <v>163</v>
+        <v>173.1</v>
       </c>
       <c r="E24" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F24" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G24" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D25" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E25" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F25" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G25" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D26" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E26" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F26" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G26" t="n">
-        <v>101</v>
+        <v>106.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
       <c r="C27" t="n">
-        <v>61.9</v>
+        <v>68.9</v>
       </c>
       <c r="D27" t="n">
-        <v>155</v>
+        <v>165.2</v>
       </c>
       <c r="E27" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F27" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G27" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D28" t="n">
-        <v>152.1</v>
+        <v>163.1</v>
       </c>
       <c r="E28" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F28" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G28" t="n">
-        <v>95.5</v>
+        <v>103</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="n">
+        <v>63</v>
+      </c>
+      <c r="D29" t="n">
+        <v>160</v>
+      </c>
+      <c r="E29" t="n">
+        <v>77</v>
+      </c>
+      <c r="F29" t="n">
+        <v>127</v>
+      </c>
+      <c r="G29" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5905,621 +6049,639 @@
         <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00300847955294461</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00356589637977752</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00314277973742661</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00341870838482442</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00327399739849262</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.00283144150331046</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00357684927470282</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00298399964650973</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00338024936176421</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.00318494802920156</v>
-      </c>
-      <c r="H4"/>
+        <v>0.00332243181798927</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0027131216537399</v>
+        <v>0.00292959064829464</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00360622312264846</v>
+        <v>0.00368170032448851</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0028809068178056</v>
+        <v>0.00308654928431845</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00333733739724017</v>
+        <v>0.00348238800628989</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00308493227881516</v>
+        <v>0.00328735910524719</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00258609822090398</v>
+        <v>0.00281129629976023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00356475493723809</v>
+        <v>0.00371145301599032</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00279002775733689</v>
+        <v>0.00298285384649522</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00327550552671995</v>
+        <v>0.0034417842051853</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00300329446048952</v>
+        <v>0.00318857689722379</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00250893972837474</v>
+        <v>0.00267977924337084</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00353761839323519</v>
+        <v>0.00367128715272344</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00269122845779273</v>
+        <v>0.00289058218614962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0032334183626103</v>
+        <v>0.00339859356509463</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00292356464625408</v>
+        <v>0.00310782434157178</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00237964304789837</v>
+        <v>0.00260974080250261</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00350460544164411</v>
+        <v>0.00364919897206734</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00260553545361097</v>
+        <v>0.00280111772813951</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00314821995983857</v>
+        <v>0.00334317310932164</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00285873257421181</v>
+        <v>0.00302958977185671</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00232334698503848</v>
+        <v>0.00246913713298887</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00352651653651577</v>
+        <v>0.00364052974561425</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00252528326431738</v>
+        <v>0.00270754694811097</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00312430241049243</v>
+        <v>0.00326540348285557</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00280396282733689</v>
+        <v>0.00296851304347478</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00222846431214338</v>
+        <v>0.00242090496427648</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00348185178685572</v>
+        <v>0.00363626533230695</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00247054298182964</v>
+        <v>0.00262365674188036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00308233836227982</v>
+        <v>0.00324532047862192</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00274128394608329</v>
+        <v>0.00291489535232349</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00216675667910204</v>
+        <v>0.00232534829596801</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00345622921915808</v>
+        <v>0.00357646176711826</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00240830666642113</v>
+        <v>0.00257110336847783</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0030219551372572</v>
+        <v>0.00319541618749888</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00267399578197172</v>
+        <v>0.00285457470983257</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00210343215093236</v>
+        <v>0.00226388616859072</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0034327345872106</v>
+        <v>0.00357732165845878</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00235745546928088</v>
+        <v>0.00251166623241027</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00297566736973249</v>
+        <v>0.00313896401086998</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00261871280790556</v>
+        <v>0.00278069845958221</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00203693487545282</v>
+        <v>0.00219006475852504</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0033518052525259</v>
+        <v>0.00354002253305056</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00229227386378911</v>
+        <v>0.00246507526313887</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00293871519624609</v>
+        <v>0.00308003835100922</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00254725140146005</v>
+        <v>0.00271987398628461</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0019676199148978</v>
+        <v>0.00213682914832659</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00332910308727644</v>
+        <v>0.00349237527477819</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00221217879665039</v>
+        <v>0.00238611633595134</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00289493712262223</v>
+        <v>0.00304866316243744</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00249946815064085</v>
+        <v>0.00265462930133498</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00191002482610365</v>
+        <v>0.00205476188617563</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00332125034998388</v>
+        <v>0.00346367276557226</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00215445742976913</v>
+        <v>0.00231207567960426</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00282492065607869</v>
+        <v>0.00300151096004868</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00243892313817425</v>
+        <v>0.00260819990970575</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00187294313631892</v>
+        <v>0.00199299688603202</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0032787949165759</v>
+        <v>0.00344810600125696</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0020897976151995</v>
+        <v>0.00225091929320151</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0027967355748489</v>
+        <v>0.00293745999597132</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00241076295278707</v>
+        <v>0.00254502823012045</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00179604460378704</v>
+        <v>0.00196647221367981</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003254495284159</v>
+        <v>0.00340320938164067</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00202399160239258</v>
+        <v>0.00218572948968377</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00276768247400978</v>
+        <v>0.00291492263304388</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00234291980966656</v>
+        <v>0.00250626259618763</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00174004645732423</v>
+        <v>0.00187385223785495</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00319403973872833</v>
+        <v>0.0033871828192395</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001967354088584</v>
+        <v>0.00211599508339455</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00272821102659363</v>
+        <v>0.00287920014055694</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00229742057100206</v>
+        <v>0.0024449891560288</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0016639205913455</v>
+        <v>0.00181606005023386</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00317084048871226</v>
+        <v>0.00331580216399129</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0019162619301856</v>
+        <v>0.00206198009324688</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00269063281516829</v>
+        <v>0.00284185507475565</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00225909071277324</v>
+        <v>0.00239032564622343</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00162647229608405</v>
+        <v>0.00174408101462475</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00312904663128073</v>
+        <v>0.00329592524796119</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00186327634976556</v>
+        <v>0.00200536958014414</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0026376198748703</v>
+        <v>0.00278866372723104</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0022077941157891</v>
+        <v>0.00235678156196561</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00158831641194058</v>
+        <v>0.00170740078797382</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00307098218761952</v>
+        <v>0.00326999789282629</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00182068009409554</v>
+        <v>0.00195210915150185</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00259368854859427</v>
+        <v>0.00274229316006912</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00216457091270038</v>
+        <v>0.00230326513659094</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00154702617596849</v>
+        <v>0.00166192467072617</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00302944993958971</v>
+        <v>0.00319031893981726</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0017704942832344</v>
+        <v>0.00191131591536834</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00257061799394664</v>
+        <v>0.00269428916740407</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00214267051202819</v>
+        <v>0.00227372045042531</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00150042483448326</v>
+        <v>0.00161939750287438</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0030066692075209</v>
+        <v>0.00315165296326513</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00171636057382249</v>
+        <v>0.00185993039467475</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00251316878652081</v>
+        <v>0.00268230570364222</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00209708735388467</v>
+        <v>0.00223598812723635</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00144048029816981</v>
+        <v>0.00157909839216197</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00293752276468784</v>
+        <v>0.00313717119701181</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00167904928218104</v>
+        <v>0.00180672030124655</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00248886760656443</v>
+        <v>0.00261867648760693</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00205231461660327</v>
+        <v>0.00219968885421046</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00141044348939103</v>
+        <v>0.00151673282783102</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00288785517765339</v>
+        <v>0.00306659610787083</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00163610862610705</v>
+        <v>0.00176530972413733</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00244565142711884</v>
+        <v>0.00259028606976089</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00201285324069927</v>
+        <v>0.00214590987580231</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00135506501275037</v>
+        <v>0.00147582864406847</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00289857750875535</v>
+        <v>0.00300733955497136</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00160740707775549</v>
+        <v>0.00171430289144423</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00239136678701703</v>
+        <v>0.00254601640385777</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00195931539964623</v>
+        <v>0.00209860046828912</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00132088519457578</v>
+        <v>0.00142370327059411</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00283938929512107</v>
+        <v>0.00302237831508108</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00157664907168453</v>
+        <v>0.00168181304882695</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00235050812263188</v>
+        <v>0.00248979050303118</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00191936998920654</v>
+        <v>0.00204790811291851</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00127060981952153</v>
+        <v>0.00138896487085816</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0027702893246162</v>
+        <v>0.0029562115890183</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00152259510022793</v>
+        <v>0.00165200841133181</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00231579228291624</v>
+        <v>0.00246409102291365</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0018734095394369</v>
+        <v>0.00200515863558887</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.00133319711596149</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00289367716882522</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00159964284555152</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00241791394164538</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00195989652618634</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6574,621 +6736,639 @@
         <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>5550</v>
+        <v>7658</v>
       </c>
       <c r="D3" t="n">
-        <v>5561</v>
+        <v>7658</v>
       </c>
       <c r="E3" t="n">
-        <v>5553</v>
+        <v>7658</v>
       </c>
       <c r="F3" t="n">
-        <v>5558</v>
+        <v>7658</v>
       </c>
       <c r="G3" t="n">
-        <v>5555</v>
+        <v>7658</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="n">
-        <v>3075</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7646.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4188</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6459.25</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>5388</v>
-      </c>
-      <c r="H4"/>
+        <v>10387.91978</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>2378.8</v>
+        <v>2977.6</v>
       </c>
       <c r="D5" t="n">
-        <v>8192.9</v>
+        <v>8009</v>
       </c>
       <c r="E5" t="n">
-        <v>3783.5</v>
+        <v>4191</v>
       </c>
       <c r="F5" t="n">
-        <v>6754.25</v>
+        <v>6784</v>
       </c>
       <c r="G5" t="n">
-        <v>5222.5</v>
+        <v>5450.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>2072.8</v>
+        <v>2385.8</v>
       </c>
       <c r="D6" t="n">
-        <v>8559.3</v>
+        <v>8542.2</v>
       </c>
       <c r="E6" t="n">
-        <v>3622.75</v>
+        <v>3823</v>
       </c>
       <c r="F6" t="n">
-        <v>6966.75</v>
+        <v>6986</v>
       </c>
       <c r="G6" t="n">
-        <v>5224.5</v>
+        <v>5541.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>1610.8</v>
+        <v>1854.6</v>
       </c>
       <c r="D7" t="n">
-        <v>8954</v>
+        <v>9031</v>
       </c>
       <c r="E7" t="n">
-        <v>3364.75</v>
+        <v>3437.25</v>
       </c>
       <c r="F7" t="n">
-        <v>7058.75</v>
+        <v>7154.25</v>
       </c>
       <c r="G7" t="n">
-        <v>5256.5</v>
+        <v>5119</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.1</v>
+        <v>1792.4</v>
       </c>
       <c r="D8" t="n">
-        <v>9257</v>
+        <v>9460.5</v>
       </c>
       <c r="E8" t="n">
-        <v>3398</v>
+        <v>3334.5</v>
       </c>
       <c r="F8" t="n">
-        <v>7261.5</v>
+        <v>7154.5</v>
       </c>
       <c r="G8" t="n">
-        <v>5077.5</v>
+        <v>5109.5</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="C9" t="n">
-        <v>1479.8</v>
+        <v>1406.8</v>
       </c>
       <c r="D9" t="n">
-        <v>9334.4</v>
+        <v>9550.1</v>
       </c>
       <c r="E9" t="n">
-        <v>3228.25</v>
+        <v>3311</v>
       </c>
       <c r="F9" t="n">
-        <v>7478</v>
+        <v>7232.25</v>
       </c>
       <c r="G9" t="n">
-        <v>5279</v>
+        <v>5112.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>1273.9</v>
+        <v>1333.4</v>
       </c>
       <c r="D10" t="n">
-        <v>9417.8</v>
+        <v>9725.8</v>
       </c>
       <c r="E10" t="n">
-        <v>3250.25</v>
+        <v>3138.5</v>
       </c>
       <c r="F10" t="n">
-        <v>7310.5</v>
+        <v>7167.5</v>
       </c>
       <c r="G10" t="n">
-        <v>5303</v>
+        <v>4977.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11" t="n">
-        <v>1158.6</v>
+        <v>1201.2</v>
       </c>
       <c r="D11" t="n">
-        <v>9547.3</v>
+        <v>9578</v>
       </c>
       <c r="E11" t="n">
-        <v>3030.75</v>
+        <v>3132.25</v>
       </c>
       <c r="F11" t="n">
-        <v>7464.75</v>
+        <v>7309</v>
       </c>
       <c r="G11" t="n">
-        <v>5294.5</v>
+        <v>5093.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>1236.5</v>
+        <v>1126.9</v>
       </c>
       <c r="D12" t="n">
-        <v>9642</v>
+        <v>9915</v>
       </c>
       <c r="E12" t="n">
-        <v>3090.5</v>
+        <v>2990.75</v>
       </c>
       <c r="F12" t="n">
-        <v>7423.5</v>
+        <v>7238</v>
       </c>
       <c r="G12" t="n">
-        <v>5080</v>
+        <v>5082.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="n">
-        <v>965.7</v>
+        <v>919.4</v>
       </c>
       <c r="D13" t="n">
-        <v>9893.4</v>
+        <v>9797.4</v>
       </c>
       <c r="E13" t="n">
-        <v>3097.25</v>
+        <v>3013</v>
       </c>
       <c r="F13" t="n">
-        <v>7385.5</v>
+        <v>7237.25</v>
       </c>
       <c r="G13" t="n">
-        <v>5192.5</v>
+        <v>4931.5</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14" t="n">
-        <v>954.8</v>
+        <v>647.5</v>
       </c>
       <c r="D14" t="n">
-        <v>10024.4</v>
+        <v>10109.3</v>
       </c>
       <c r="E14" t="n">
-        <v>2910.5</v>
+        <v>2916</v>
       </c>
       <c r="F14" t="n">
-        <v>7471.75</v>
+        <v>7419.5</v>
       </c>
       <c r="G14" t="n">
-        <v>5171.5</v>
+        <v>5034</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="n">
-        <v>903.9</v>
+        <v>796</v>
       </c>
       <c r="D15" t="n">
-        <v>10069.5</v>
+        <v>10253.2</v>
       </c>
       <c r="E15" t="n">
-        <v>2908.5</v>
+        <v>2754.75</v>
       </c>
       <c r="F15" t="n">
-        <v>7337.25</v>
+        <v>7366.75</v>
       </c>
       <c r="G15" t="n">
-        <v>4989.5</v>
+        <v>4997</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>894.2</v>
+        <v>947.1</v>
       </c>
       <c r="D16" t="n">
-        <v>9864.1</v>
+        <v>9839.1</v>
       </c>
       <c r="E16" t="n">
-        <v>3024.25</v>
+        <v>2763.25</v>
       </c>
       <c r="F16" t="n">
-        <v>7385.75</v>
+        <v>7251</v>
       </c>
       <c r="G16" t="n">
-        <v>5040</v>
+        <v>4943.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
       <c r="C17" t="n">
-        <v>1212</v>
+        <v>1000.8</v>
       </c>
       <c r="D17" t="n">
-        <v>10194.3</v>
+        <v>9824.9</v>
       </c>
       <c r="E17" t="n">
-        <v>3041.5</v>
+        <v>2858.5</v>
       </c>
       <c r="F17" t="n">
-        <v>7548.75</v>
+        <v>7296.25</v>
       </c>
       <c r="G17" t="n">
-        <v>5200</v>
+        <v>4871.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="n">
-        <v>957.700000000001</v>
+        <v>696.5</v>
       </c>
       <c r="D18" t="n">
-        <v>9972.1</v>
+        <v>10073</v>
       </c>
       <c r="E18" t="n">
-        <v>3149.5</v>
+        <v>2636</v>
       </c>
       <c r="F18" t="n">
-        <v>7502.5</v>
+        <v>7325.25</v>
       </c>
       <c r="G18" t="n">
-        <v>5129</v>
+        <v>4785.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>966.7</v>
+        <v>574</v>
       </c>
       <c r="D19" t="n">
-        <v>9967.3</v>
+        <v>9727.7</v>
       </c>
       <c r="E19" t="n">
-        <v>3153.75</v>
+        <v>2833.75</v>
       </c>
       <c r="F19" t="n">
-        <v>7498</v>
+        <v>7110</v>
       </c>
       <c r="G19" t="n">
-        <v>5202</v>
+        <v>4935.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="n">
-        <v>1019</v>
+        <v>750</v>
       </c>
       <c r="D20" t="n">
-        <v>10244.3</v>
+        <v>9770.3</v>
       </c>
       <c r="E20" t="n">
-        <v>3224.5</v>
+        <v>2766.5</v>
       </c>
       <c r="F20" t="n">
-        <v>7536.5</v>
+        <v>7276</v>
       </c>
       <c r="G20" t="n">
-        <v>5300</v>
+        <v>4984.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>1091.6</v>
+        <v>724.2</v>
       </c>
       <c r="D21" t="n">
-        <v>10548.9</v>
+        <v>9736.9</v>
       </c>
       <c r="E21" t="n">
-        <v>3128</v>
+        <v>2909.5</v>
       </c>
       <c r="F21" t="n">
-        <v>7488.25</v>
+        <v>7225.5</v>
       </c>
       <c r="G21" t="n">
-        <v>5408.5</v>
+        <v>5096.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>1157</v>
+        <v>1057.6</v>
       </c>
       <c r="D22" t="n">
-        <v>10394</v>
+        <v>10247</v>
       </c>
       <c r="E22" t="n">
-        <v>3205</v>
+        <v>2972.5</v>
       </c>
       <c r="F22" t="n">
-        <v>7569.75</v>
+        <v>7161.25</v>
       </c>
       <c r="G22" t="n">
-        <v>5289.5</v>
+        <v>5030.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="n">
-        <v>871.7</v>
+        <v>1112.2</v>
       </c>
       <c r="D23" t="n">
-        <v>10720.7</v>
+        <v>10308</v>
       </c>
       <c r="E23" t="n">
-        <v>3013.5</v>
+        <v>2927.25</v>
       </c>
       <c r="F23" t="n">
-        <v>7662.25</v>
+        <v>7540.25</v>
       </c>
       <c r="G23" t="n">
-        <v>5385.5</v>
+        <v>4852</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>829.9</v>
+        <v>868</v>
       </c>
       <c r="D24" t="n">
-        <v>10677</v>
+        <v>10662.5</v>
       </c>
       <c r="E24" t="n">
-        <v>3001.25</v>
+        <v>2791.75</v>
       </c>
       <c r="F24" t="n">
-        <v>7918.5</v>
+        <v>7704.75</v>
       </c>
       <c r="G24" t="n">
-        <v>5276</v>
+        <v>4955</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>817.1</v>
+        <v>910.2</v>
       </c>
       <c r="D25" t="n">
-        <v>10952.8</v>
+        <v>10751.4</v>
       </c>
       <c r="E25" t="n">
-        <v>2983</v>
+        <v>2825.25</v>
       </c>
       <c r="F25" t="n">
-        <v>7717.75</v>
+        <v>7473.25</v>
       </c>
       <c r="G25" t="n">
-        <v>5164</v>
+        <v>5081</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="n">
-        <v>818</v>
+        <v>724.8</v>
       </c>
       <c r="D26" t="n">
-        <v>10553.4</v>
+        <v>10306.9</v>
       </c>
       <c r="E26" t="n">
-        <v>2745.5</v>
+        <v>2650.25</v>
       </c>
       <c r="F26" t="n">
-        <v>7924.5</v>
+        <v>7253.75</v>
       </c>
       <c r="G26" t="n">
-        <v>5311</v>
+        <v>5013</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="n">
-        <v>1015.5</v>
+        <v>564.2</v>
       </c>
       <c r="D27" t="n">
-        <v>10768.6</v>
+        <v>10453</v>
       </c>
       <c r="E27" t="n">
-        <v>2876</v>
+        <v>2680.75</v>
       </c>
       <c r="F27" t="n">
-        <v>7835</v>
+        <v>7463.75</v>
       </c>
       <c r="G27" t="n">
-        <v>5362.5</v>
+        <v>5026</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="n">
-        <v>913.9</v>
+        <v>795.3</v>
       </c>
       <c r="D28" t="n">
-        <v>10782.8</v>
+        <v>10520.5</v>
       </c>
       <c r="E28" t="n">
-        <v>3089.75</v>
+        <v>2608.75</v>
       </c>
       <c r="F28" t="n">
-        <v>7916.25</v>
+        <v>7549.25</v>
       </c>
       <c r="G28" t="n">
-        <v>5261</v>
+        <v>5071.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="n">
+        <v>449.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10345.1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2848.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7633.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5098</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
